--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_13_21.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_13_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>338506.4594811762</v>
+        <v>329567.3490238701</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24057358.35711538</v>
+        <v>24057358.35711537</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12358746.90168757</v>
+        <v>12358746.90168756</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4552781.487496625</v>
+        <v>4552781.487496626</v>
       </c>
     </row>
     <row r="11">
@@ -1372,25 +1372,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>380.1025316638161</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>324.8760366777516</v>
+        <v>380.1025316638161</v>
       </c>
       <c r="F11" t="n">
-        <v>380.1025316638157</v>
+        <v>380.1025316638161</v>
       </c>
       <c r="G11" t="n">
-        <v>380.1025316638157</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>288.170675930369</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>11.59718071435205</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>90.25294823083189</v>
+        <v>90.25294823083186</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>244.5413616586572</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1457,10 +1457,10 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F12" t="n">
-        <v>11.71395263705</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>87.86208203003511</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>153.6150006628197</v>
       </c>
       <c r="U12" t="n">
-        <v>195.3098363030213</v>
+        <v>175.5979831225126</v>
       </c>
       <c r="V12" t="n">
         <v>211.5744117368965</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
         <v>162.9848146305146</v>
@@ -1548,7 +1548,7 @@
         <v>140.4675424422307</v>
       </c>
       <c r="I13" t="n">
-        <v>89.32796706574101</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>45.76311615258537</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>169.5449896719115</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1587,13 +1587,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>13.49325827749042</v>
+        <v>66.11083505697768</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>380.1025316638162</v>
       </c>
       <c r="C14" t="n">
-        <v>336.4732173921037</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>380.1025316638157</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>380.1025316638157</v>
+        <v>380.1025316638162</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>288.170675930369</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>90.25294823083189</v>
+        <v>90.25294823083186</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>244.5413616586574</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>380.1025316638162</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1685,25 +1685,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>115.26312851173</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F15" t="n">
-        <v>107.8702810193205</v>
+        <v>18.17496127950986</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>60.13566595377411</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,10 +1736,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>87.86208203003511</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>153.6150006628197</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>195.3098363030213</v>
@@ -1767,25 +1767,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>11.06324366023936</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>164.7181507608077</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4675424422307</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>89.32796706574101</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>169.5449896719115</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>233.4798324570193</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9232712664514</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>182.111355226363</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,25 +1846,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>323.3769629827701</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>113.2816864400719</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>380.1025316638157</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>380.1025316638157</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>288.170675930369</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>11.59718071435206</v>
+        <v>11.59718071435202</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>90.25294823083189</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>211.5943502376797</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>380.1025316638161</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>380.1025316638161</v>
       </c>
     </row>
     <row r="18">
@@ -1922,25 +1922,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E18" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F18" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>104.8947215166441</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>60.13566595377411</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>87.86208203003511</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>153.6150006628197</v>
@@ -1982,7 +1982,7 @@
         <v>195.3098363030213</v>
       </c>
       <c r="V18" t="n">
-        <v>211.5744117368965</v>
+        <v>76.13437235358614</v>
       </c>
       <c r="W18" t="n">
         <v>211.1008365810345</v>
@@ -1991,7 +1991,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y18" t="n">
-        <v>48.88845918729884</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="19">
@@ -2010,19 +2010,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>28.47174493741698</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.4675424422307</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>89.32796706574101</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>45.76311615258539</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>233.4798324570193</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9232712664514</v>
+        <v>231.4906467543446</v>
       </c>
       <c r="V19" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2089,19 +2089,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>380.1025316638157</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>380.1025316638157</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>158.7129870482288</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>11.59718071435201</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>90.25294823083189</v>
+        <v>90.25294823083186</v>
       </c>
       <c r="T20" t="n">
         <v>211.5943502376797</v>
       </c>
       <c r="U20" t="n">
-        <v>254.3365560365643</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>55.2930170611905</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>380.1025316638161</v>
       </c>
     </row>
     <row r="21">
@@ -2171,7 +2171,7 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F21" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2213,10 +2213,10 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>105.6145165632089</v>
+        <v>153.6150006628197</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>195.3098363030213</v>
       </c>
       <c r="V21" t="n">
         <v>211.5744117368965</v>
@@ -2225,7 +2225,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X21" t="n">
-        <v>174.5627220424961</v>
+        <v>39.12268265918591</v>
       </c>
       <c r="Y21" t="n">
         <v>157.8079400398083</v>
@@ -2244,7 +2244,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.7181507608077</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.5829533222154</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>227.2693256163616</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>235.9604235189134</v>
@@ -2320,13 +2320,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>402.3145745171349</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>283.9738944557603</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2374,19 +2374,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>254.3037726831681</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>246.8451528888105</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>345.0430330206539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>83.78946074098184</v>
+        <v>83.78946074098218</v>
       </c>
       <c r="T24" t="n">
         <v>152.7312370348056</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>55.85255598777758</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>109.7907924713178</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>37.4979658673368</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>166.3415337283568</v>
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>153.45560807568</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>154.2844854846437</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.3037726831681</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>396.9273063213908</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>107.3300765941565</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
@@ -2730,7 +2730,7 @@
         <v>164.5343322142292</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>37.4979658673368</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>232.6944259398202</v>
       </c>
       <c r="U28" t="n">
         <v>279.9132448002744</v>
@@ -2778,10 +2778,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>187.7171375609863</v>
       </c>
     </row>
     <row r="29">
@@ -2797,19 +2797,19 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>324.8378223519649</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>283.9738944557603</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>48.74616670734218</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>83.78946074098218</v>
+        <v>83.78946074098184</v>
       </c>
       <c r="T30" t="n">
         <v>152.7312370348056</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>59.20927508561977</v>
+        <v>75.26597919023563</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>37.4979658673368</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T31" t="n">
         <v>232.6944259398202</v>
@@ -3012,7 +3012,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>235.9604235189134</v>
@@ -3031,22 +3031,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>332.7200611631023</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>402.3145745171349</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>69.19620202434722</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.3037726831681</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>93.35052185511449</v>
       </c>
       <c r="G34" t="n">
-        <v>100.9350716717468</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>83.80004204681615</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>37.4979658673368</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>166.3415337283568</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>232.6944259398202</v>
       </c>
       <c r="U34" t="n">
         <v>279.9132448002744</v>
@@ -3249,13 +3249,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>324.8378223519649</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>283.9738944557603</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.3037726831681</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>337.9478336233394</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3359,7 +3359,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G36" t="n">
-        <v>104.6754635109997</v>
+        <v>104.6754635109996</v>
       </c>
       <c r="H36" t="n">
         <v>58.01809521505031</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>83.78946074098184</v>
+        <v>83.78946074098218</v>
       </c>
       <c r="T36" t="n">
         <v>152.7312370348056</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>93.35052185511449</v>
       </c>
       <c r="H37" t="n">
-        <v>55.85255598777758</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>37.4979658673368</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>166.3415337283568</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>330.5374996119396</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
         <v>406.0233447798626</v>
@@ -3514,7 +3514,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>260.3238247580575</v>
       </c>
     </row>
     <row r="39">
@@ -3599,7 +3599,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H39" t="n">
-        <v>58.01809521505042</v>
+        <v>58.01809521505031</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>83.78946074098184</v>
+        <v>83.78946074098218</v>
       </c>
       <c r="T39" t="n">
         <v>152.7312370348056</v>
@@ -3666,13 +3666,13 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>30.58063853685789</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>39.34699572725909</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>164.5343322142292</v>
@@ -3717,10 +3717,10 @@
         <v>232.6944259398202</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9132448002744</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>276.2789678462144</v>
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T41" t="n">
         <v>209.8004861190321</v>
       </c>
       <c r="U41" t="n">
-        <v>115.0373362329331</v>
+        <v>254.3037726831681</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>210.2207726348392</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3869,10 +3869,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>83.78946074098218</v>
+        <v>83.78946074098184</v>
       </c>
       <c r="T42" t="n">
-        <v>152.7312370348056</v>
+        <v>152.731237034806</v>
       </c>
       <c r="U42" t="n">
         <v>195.2954114342289</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>164.5343322142292</v>
       </c>
       <c r="H43" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>83.80004204681615</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>37.4979658673368</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>232.6944259398202</v>
@@ -3957,16 +3957,16 @@
         <v>279.9132448002744</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>144.7752128044798</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.99091531638014</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>266.7569083296278</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,10 +4030,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.3037726831681</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>339.9238805390654</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>120.4097495468069</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
         <v>157.8996982303191</v>
@@ -4152,10 +4152,10 @@
         <v>164.5343322142292</v>
       </c>
       <c r="H46" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>83.80004204681615</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>232.6944259398202</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>279.9132448002744</v>
@@ -4200,10 +4200,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>2.794499662375012</v>
       </c>
     </row>
   </sheetData>
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1429.245532482706</v>
+        <v>1182.234056059821</v>
       </c>
       <c r="C11" t="n">
-        <v>1429.245532482706</v>
+        <v>798.2921048842489</v>
       </c>
       <c r="D11" t="n">
-        <v>1429.245532482706</v>
+        <v>798.2921048842489</v>
       </c>
       <c r="E11" t="n">
-        <v>1101.087919676896</v>
+        <v>414.3501537086771</v>
       </c>
       <c r="F11" t="n">
-        <v>717.1459685013243</v>
+        <v>30.40820253310529</v>
       </c>
       <c r="G11" t="n">
-        <v>333.2040173257528</v>
+        <v>30.40820253310529</v>
       </c>
       <c r="H11" t="n">
-        <v>42.12252648699622</v>
+        <v>30.40820253310529</v>
       </c>
       <c r="I11" t="n">
-        <v>30.40820253310526</v>
+        <v>30.40820253310529</v>
       </c>
       <c r="J11" t="n">
         <v>118.8631127885982</v>
@@ -5047,46 +5047,46 @@
         <v>271.9831935811736</v>
       </c>
       <c r="L11" t="n">
-        <v>476.887407160559</v>
+        <v>476.8874071605592</v>
       </c>
       <c r="M11" t="n">
-        <v>717.7089477476831</v>
+        <v>717.7089477476835</v>
       </c>
       <c r="N11" t="n">
-        <v>964.2958250261031</v>
+        <v>964.2958250261039</v>
       </c>
       <c r="O11" t="n">
-        <v>1191.740040054293</v>
+        <v>1191.740040054294</v>
       </c>
       <c r="P11" t="n">
-        <v>1371.885510125087</v>
+        <v>1371.885510125088</v>
       </c>
       <c r="Q11" t="n">
-        <v>1487.657293434418</v>
+        <v>1487.657293434419</v>
       </c>
       <c r="R11" t="n">
-        <v>1520.410126655263</v>
+        <v>1520.410126655264</v>
       </c>
       <c r="S11" t="n">
-        <v>1429.245532482706</v>
+        <v>1429.245532482707</v>
       </c>
       <c r="T11" t="n">
-        <v>1429.245532482706</v>
+        <v>1429.245532482707</v>
       </c>
       <c r="U11" t="n">
-        <v>1429.245532482706</v>
+        <v>1429.245532482707</v>
       </c>
       <c r="V11" t="n">
-        <v>1429.245532482706</v>
+        <v>1429.245532482707</v>
       </c>
       <c r="W11" t="n">
-        <v>1429.245532482706</v>
+        <v>1429.245532482707</v>
       </c>
       <c r="X11" t="n">
-        <v>1429.245532482706</v>
+        <v>1182.234056059821</v>
       </c>
       <c r="Y11" t="n">
-        <v>1429.245532482706</v>
+        <v>1182.234056059821</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>176.2355491751192</v>
+        <v>284.8960897918316</v>
       </c>
       <c r="C12" t="n">
-        <v>42.24047792406486</v>
+        <v>150.9010185407773</v>
       </c>
       <c r="D12" t="n">
-        <v>42.24047792406486</v>
+        <v>150.9010185407773</v>
       </c>
       <c r="E12" t="n">
-        <v>42.24047792406486</v>
+        <v>30.40820253310529</v>
       </c>
       <c r="F12" t="n">
-        <v>30.40820253310526</v>
+        <v>30.40820253310529</v>
       </c>
       <c r="G12" t="n">
-        <v>30.40820253310526</v>
+        <v>30.40820253310529</v>
       </c>
       <c r="H12" t="n">
-        <v>30.40820253310526</v>
+        <v>30.40820253310529</v>
       </c>
       <c r="I12" t="n">
-        <v>45.02687594044838</v>
+        <v>45.02687594044842</v>
       </c>
       <c r="J12" t="n">
         <v>333.7571904688712</v>
@@ -5126,10 +5126,10 @@
         <v>442.4278769744051</v>
       </c>
       <c r="L12" t="n">
-        <v>607.3096549446017</v>
+        <v>607.3096549446018</v>
       </c>
       <c r="M12" t="n">
-        <v>807.5584444745446</v>
+        <v>807.5584444745448</v>
       </c>
       <c r="N12" t="n">
         <v>1018.942724795353</v>
@@ -5141,31 +5141,31 @@
         <v>1343.467372524459</v>
       </c>
       <c r="Q12" t="n">
-        <v>1515.786689267608</v>
+        <v>1427.816972790628</v>
       </c>
       <c r="R12" t="n">
-        <v>1520.410126655263</v>
+        <v>1520.410126655264</v>
       </c>
       <c r="S12" t="n">
-        <v>1431.660548847147</v>
+        <v>1520.410126655264</v>
       </c>
       <c r="T12" t="n">
-        <v>1276.493881510965</v>
+        <v>1365.243459319083</v>
       </c>
       <c r="U12" t="n">
-        <v>1079.21121857862</v>
+        <v>1187.871759195333</v>
       </c>
       <c r="V12" t="n">
-        <v>865.4996915716542</v>
+        <v>974.1602321883666</v>
       </c>
       <c r="W12" t="n">
-        <v>652.266523307983</v>
+        <v>760.9270639246954</v>
       </c>
       <c r="X12" t="n">
-        <v>475.9405414468758</v>
+        <v>584.6010820635883</v>
       </c>
       <c r="Y12" t="n">
-        <v>316.5385818107058</v>
+        <v>425.1991224274183</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>764.6313475969384</v>
+        <v>823.7131652040507</v>
       </c>
       <c r="C13" t="n">
-        <v>593.5379751586549</v>
+        <v>823.7131652040507</v>
       </c>
       <c r="D13" t="n">
-        <v>593.5379751586549</v>
+        <v>664.2185205269607</v>
       </c>
       <c r="E13" t="n">
-        <v>593.5379751586549</v>
+        <v>503.3077053952802</v>
       </c>
       <c r="F13" t="n">
-        <v>428.9068492692462</v>
+        <v>338.6765795058714</v>
       </c>
       <c r="G13" t="n">
-        <v>262.5248788037838</v>
+        <v>172.2946090404091</v>
       </c>
       <c r="H13" t="n">
-        <v>120.63847229648</v>
+        <v>30.40820253310529</v>
       </c>
       <c r="I13" t="n">
-        <v>30.40820253310526</v>
+        <v>30.40820253310529</v>
       </c>
       <c r="J13" t="n">
-        <v>104.6662819867953</v>
+        <v>39.66491835545897</v>
       </c>
       <c r="K13" t="n">
-        <v>358.105490771084</v>
+        <v>86.82393355403352</v>
       </c>
       <c r="L13" t="n">
-        <v>734.4069971182615</v>
+        <v>333.2608952380531</v>
       </c>
       <c r="M13" t="n">
-        <v>812.1246172019763</v>
+        <v>709.562401585231</v>
       </c>
       <c r="N13" t="n">
-        <v>891.1765839794314</v>
+        <v>1085.863907932409</v>
       </c>
       <c r="O13" t="n">
-        <v>1074.99397060063</v>
+        <v>1462.165414279587</v>
       </c>
       <c r="P13" t="n">
-        <v>1383.61080878839</v>
+        <v>1509.884768994228</v>
       </c>
       <c r="Q13" t="n">
-        <v>1520.410126655263</v>
+        <v>1520.410126655264</v>
       </c>
       <c r="R13" t="n">
-        <v>1520.410126655263</v>
+        <v>1474.184756804168</v>
       </c>
       <c r="S13" t="n">
-        <v>1520.410126655263</v>
+        <v>1302.927191479005</v>
       </c>
       <c r="T13" t="n">
-        <v>1520.410126655263</v>
+        <v>1302.927191479005</v>
       </c>
       <c r="U13" t="n">
-        <v>1520.410126655263</v>
+        <v>1302.927191479005</v>
       </c>
       <c r="V13" t="n">
-        <v>1506.780572839616</v>
+        <v>1236.148570209331</v>
       </c>
       <c r="W13" t="n">
-        <v>1227.71090834849</v>
+        <v>1236.148570209331</v>
       </c>
       <c r="X13" t="n">
-        <v>989.3670462081737</v>
+        <v>1236.148570209331</v>
       </c>
       <c r="Y13" t="n">
-        <v>764.6313475969384</v>
+        <v>1011.412871598095</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1429.245532482706</v>
+        <v>414.3501537086772</v>
       </c>
       <c r="C14" t="n">
-        <v>1089.373595723005</v>
+        <v>414.3501537086772</v>
       </c>
       <c r="D14" t="n">
-        <v>705.4316445474334</v>
+        <v>414.3501537086772</v>
       </c>
       <c r="E14" t="n">
-        <v>705.4316445474334</v>
+        <v>414.3501537086772</v>
       </c>
       <c r="F14" t="n">
-        <v>321.4896933718619</v>
+        <v>30.4082025331053</v>
       </c>
       <c r="G14" t="n">
-        <v>321.4896933718619</v>
+        <v>30.4082025331053</v>
       </c>
       <c r="H14" t="n">
-        <v>30.40820253310526</v>
+        <v>30.4082025331053</v>
       </c>
       <c r="I14" t="n">
-        <v>30.40820253310526</v>
+        <v>30.4082025331053</v>
       </c>
       <c r="J14" t="n">
-        <v>118.8631127885979</v>
+        <v>118.8631127885982</v>
       </c>
       <c r="K14" t="n">
-        <v>271.9831935811732</v>
+        <v>271.9831935811736</v>
       </c>
       <c r="L14" t="n">
-        <v>476.8874071605586</v>
+        <v>476.8874071605592</v>
       </c>
       <c r="M14" t="n">
-        <v>717.7089477476826</v>
+        <v>717.7089477476835</v>
       </c>
       <c r="N14" t="n">
-        <v>964.2958250261029</v>
+        <v>964.2958250261039</v>
       </c>
       <c r="O14" t="n">
-        <v>1191.740040054293</v>
+        <v>1191.740040054294</v>
       </c>
       <c r="P14" t="n">
-        <v>1371.885510125087</v>
+        <v>1371.885510125088</v>
       </c>
       <c r="Q14" t="n">
-        <v>1487.657293434418</v>
+        <v>1487.65729343442</v>
       </c>
       <c r="R14" t="n">
-        <v>1520.410126655263</v>
+        <v>1520.410126655265</v>
       </c>
       <c r="S14" t="n">
-        <v>1429.245532482706</v>
+        <v>1429.245532482707</v>
       </c>
       <c r="T14" t="n">
-        <v>1429.245532482706</v>
+        <v>1429.245532482707</v>
       </c>
       <c r="U14" t="n">
-        <v>1429.245532482706</v>
+        <v>1429.245532482707</v>
       </c>
       <c r="V14" t="n">
-        <v>1429.245532482706</v>
+        <v>1182.234056059821</v>
       </c>
       <c r="W14" t="n">
-        <v>1429.245532482706</v>
+        <v>1182.234056059821</v>
       </c>
       <c r="X14" t="n">
-        <v>1429.245532482706</v>
+        <v>798.2921048842492</v>
       </c>
       <c r="Y14" t="n">
-        <v>1429.245532482706</v>
+        <v>798.2921048842492</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>200.1111792736048</v>
+        <v>420.1517943194189</v>
       </c>
       <c r="C15" t="n">
-        <v>200.1111792736048</v>
+        <v>286.1567230683646</v>
       </c>
       <c r="D15" t="n">
-        <v>200.1111792736048</v>
+        <v>169.259565287757</v>
       </c>
       <c r="E15" t="n">
-        <v>200.1111792736048</v>
+        <v>48.76674928008495</v>
       </c>
       <c r="F15" t="n">
-        <v>91.15129945610941</v>
+        <v>30.4082025331053</v>
       </c>
       <c r="G15" t="n">
-        <v>91.15129945610941</v>
+        <v>30.4082025331053</v>
       </c>
       <c r="H15" t="n">
-        <v>30.40820253310526</v>
+        <v>30.4082025331053</v>
       </c>
       <c r="I15" t="n">
-        <v>45.02687594044838</v>
+        <v>45.02687594044843</v>
       </c>
       <c r="J15" t="n">
-        <v>90.08878649423784</v>
+        <v>333.7571904688712</v>
       </c>
       <c r="K15" t="n">
-        <v>198.7594729997717</v>
+        <v>541.2790107515034</v>
       </c>
       <c r="L15" t="n">
-        <v>575.0609793469492</v>
+        <v>706.1607887217001</v>
       </c>
       <c r="M15" t="n">
-        <v>906.4095782516417</v>
+        <v>906.4095782516431</v>
       </c>
       <c r="N15" t="n">
-        <v>1117.79385857245</v>
+        <v>1117.793858572451</v>
       </c>
       <c r="O15" t="n">
-        <v>1302.170160739274</v>
+        <v>1302.170160739276</v>
       </c>
       <c r="P15" t="n">
-        <v>1442.318506301556</v>
+        <v>1442.318506301558</v>
       </c>
       <c r="Q15" t="n">
-        <v>1515.786689267608</v>
+        <v>1515.78668926761</v>
       </c>
       <c r="R15" t="n">
-        <v>1520.410126655263</v>
+        <v>1520.410126655265</v>
       </c>
       <c r="S15" t="n">
-        <v>1431.660548847147</v>
+        <v>1520.410126655265</v>
       </c>
       <c r="T15" t="n">
-        <v>1276.493881510965</v>
+        <v>1520.410126655265</v>
       </c>
       <c r="U15" t="n">
-        <v>1079.21121857862</v>
+        <v>1323.12746372292</v>
       </c>
       <c r="V15" t="n">
-        <v>865.4996915716542</v>
+        <v>1109.415936715954</v>
       </c>
       <c r="W15" t="n">
-        <v>652.266523307983</v>
+        <v>896.1827684522826</v>
       </c>
       <c r="X15" t="n">
-        <v>475.9405414468758</v>
+        <v>719.8567865911755</v>
       </c>
       <c r="Y15" t="n">
-        <v>316.5385818107058</v>
+        <v>560.4548269550055</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>936.7171563248203</v>
+        <v>356.2848176756576</v>
       </c>
       <c r="C16" t="n">
-        <v>765.6237838865368</v>
+        <v>356.2848176756576</v>
       </c>
       <c r="D16" t="n">
-        <v>754.4487902903354</v>
+        <v>196.7901729985676</v>
       </c>
       <c r="E16" t="n">
-        <v>593.5379751586549</v>
+        <v>196.7901729985676</v>
       </c>
       <c r="F16" t="n">
-        <v>428.9068492692462</v>
+        <v>196.7901729985676</v>
       </c>
       <c r="G16" t="n">
-        <v>262.5248788037838</v>
+        <v>30.4082025331053</v>
       </c>
       <c r="H16" t="n">
-        <v>120.63847229648</v>
+        <v>30.4082025331053</v>
       </c>
       <c r="I16" t="n">
-        <v>30.40820253310526</v>
+        <v>30.4082025331053</v>
       </c>
       <c r="J16" t="n">
-        <v>104.6662819867953</v>
+        <v>39.66491835545897</v>
       </c>
       <c r="K16" t="n">
-        <v>358.1054907710839</v>
+        <v>86.82393355403353</v>
       </c>
       <c r="L16" t="n">
-        <v>734.4069971182614</v>
+        <v>333.2608952380531</v>
       </c>
       <c r="M16" t="n">
-        <v>931.1515185842394</v>
+        <v>709.5624015852311</v>
       </c>
       <c r="N16" t="n">
-        <v>1010.203485361694</v>
+        <v>1085.863907932409</v>
       </c>
       <c r="O16" t="n">
-        <v>1074.99397060063</v>
+        <v>1462.165414279587</v>
       </c>
       <c r="P16" t="n">
-        <v>1383.61080878839</v>
+        <v>1509.884768994229</v>
       </c>
       <c r="Q16" t="n">
-        <v>1520.410126655263</v>
+        <v>1520.410126655265</v>
       </c>
       <c r="R16" t="n">
-        <v>1520.410126655263</v>
+        <v>1520.410126655265</v>
       </c>
       <c r="S16" t="n">
-        <v>1349.1525613301</v>
+        <v>1520.410126655265</v>
       </c>
       <c r="T16" t="n">
-        <v>1349.1525613301</v>
+        <v>1284.571912052215</v>
       </c>
       <c r="U16" t="n">
-        <v>1349.1525613301</v>
+        <v>1001.821132995193</v>
       </c>
       <c r="V16" t="n">
-        <v>1349.1525613301</v>
+        <v>727.9353879347152</v>
       </c>
       <c r="W16" t="n">
-        <v>1349.1525613301</v>
+        <v>543.984524069702</v>
       </c>
       <c r="X16" t="n">
-        <v>1349.1525613301</v>
+        <v>543.984524069702</v>
       </c>
       <c r="Y16" t="n">
-        <v>1124.416862718865</v>
+        <v>543.984524069702</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1215.513865575958</v>
+        <v>368.7659234392893</v>
       </c>
       <c r="C17" t="n">
-        <v>1215.513865575958</v>
+        <v>42.12252648699621</v>
       </c>
       <c r="D17" t="n">
-        <v>1215.513865575958</v>
+        <v>42.12252648699621</v>
       </c>
       <c r="E17" t="n">
-        <v>1101.087919676896</v>
+        <v>42.12252648699621</v>
       </c>
       <c r="F17" t="n">
-        <v>717.1459685013243</v>
+        <v>42.12252648699621</v>
       </c>
       <c r="G17" t="n">
-        <v>333.2040173257528</v>
+        <v>42.12252648699621</v>
       </c>
       <c r="H17" t="n">
-        <v>42.12252648699624</v>
+        <v>42.12252648699621</v>
       </c>
       <c r="I17" t="n">
-        <v>30.40820253310526</v>
+        <v>30.40820253310529</v>
       </c>
       <c r="J17" t="n">
-        <v>118.8631127885983</v>
+        <v>118.8631127885988</v>
       </c>
       <c r="K17" t="n">
-        <v>271.9831935811735</v>
+        <v>271.9831935811742</v>
       </c>
       <c r="L17" t="n">
-        <v>476.887407160559</v>
+        <v>476.8874071605597</v>
       </c>
       <c r="M17" t="n">
-        <v>717.7089477476831</v>
+        <v>717.708947747684</v>
       </c>
       <c r="N17" t="n">
-        <v>964.2958250261033</v>
+        <v>964.2958250261045</v>
       </c>
       <c r="O17" t="n">
-        <v>1191.740040054293</v>
+        <v>1191.740040054295</v>
       </c>
       <c r="P17" t="n">
-        <v>1371.885510125087</v>
+        <v>1371.885510125088</v>
       </c>
       <c r="Q17" t="n">
-        <v>1487.657293434418</v>
+        <v>1487.657293434419</v>
       </c>
       <c r="R17" t="n">
-        <v>1520.410126655263</v>
+        <v>1520.410126655264</v>
       </c>
       <c r="S17" t="n">
-        <v>1429.245532482706</v>
+        <v>1520.410126655264</v>
       </c>
       <c r="T17" t="n">
-        <v>1215.513865575958</v>
+        <v>1520.410126655264</v>
       </c>
       <c r="U17" t="n">
-        <v>1215.513865575958</v>
+        <v>1520.410126655264</v>
       </c>
       <c r="V17" t="n">
-        <v>1215.513865575958</v>
+        <v>1520.410126655264</v>
       </c>
       <c r="W17" t="n">
-        <v>1215.513865575958</v>
+        <v>1136.649825790433</v>
       </c>
       <c r="X17" t="n">
-        <v>1215.513865575958</v>
+        <v>752.7078746148611</v>
       </c>
       <c r="Y17" t="n">
-        <v>1215.513865575958</v>
+        <v>368.7659234392893</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>426.5582594395032</v>
+        <v>401.7932475724392</v>
       </c>
       <c r="C18" t="n">
-        <v>426.5582594395032</v>
+        <v>267.7981763213849</v>
       </c>
       <c r="D18" t="n">
-        <v>426.5582594395032</v>
+        <v>150.9010185407773</v>
       </c>
       <c r="E18" t="n">
-        <v>306.0654434318312</v>
+        <v>30.40820253310529</v>
       </c>
       <c r="F18" t="n">
-        <v>197.1055636143358</v>
+        <v>30.40820253310529</v>
       </c>
       <c r="G18" t="n">
-        <v>91.15129945610941</v>
+        <v>30.40820253310529</v>
       </c>
       <c r="H18" t="n">
-        <v>30.40820253310526</v>
+        <v>30.40820253310529</v>
       </c>
       <c r="I18" t="n">
-        <v>30.40820253310526</v>
+        <v>30.40820253310529</v>
       </c>
       <c r="J18" t="n">
         <v>319.138517061528</v>
       </c>
       <c r="K18" t="n">
-        <v>427.8092035670619</v>
+        <v>541.2790107515027</v>
       </c>
       <c r="L18" t="n">
-        <v>706.1607887216986</v>
+        <v>706.1607887216994</v>
       </c>
       <c r="M18" t="n">
-        <v>906.4095782516415</v>
+        <v>906.4095782516424</v>
       </c>
       <c r="N18" t="n">
-        <v>1117.79385857245</v>
+        <v>1117.793858572451</v>
       </c>
       <c r="O18" t="n">
-        <v>1302.170160739274</v>
+        <v>1302.170160739276</v>
       </c>
       <c r="P18" t="n">
-        <v>1442.318506301556</v>
+        <v>1442.318506301557</v>
       </c>
       <c r="Q18" t="n">
-        <v>1515.786689267608</v>
+        <v>1515.786689267609</v>
       </c>
       <c r="R18" t="n">
-        <v>1520.410126655263</v>
+        <v>1520.410126655264</v>
       </c>
       <c r="S18" t="n">
-        <v>1431.660548847147</v>
+        <v>1520.410126655264</v>
       </c>
       <c r="T18" t="n">
-        <v>1276.493881510965</v>
+        <v>1365.243459319083</v>
       </c>
       <c r="U18" t="n">
-        <v>1079.21121857862</v>
+        <v>1167.960796386738</v>
       </c>
       <c r="V18" t="n">
-        <v>865.4996915716542</v>
+        <v>1091.057389968974</v>
       </c>
       <c r="W18" t="n">
-        <v>652.266523307983</v>
+        <v>877.824221705303</v>
       </c>
       <c r="X18" t="n">
-        <v>475.9405414468758</v>
+        <v>701.4982398441957</v>
       </c>
       <c r="Y18" t="n">
-        <v>426.5582594395032</v>
+        <v>542.0962802080257</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>450.778861801497</v>
+        <v>350.8136623418758</v>
       </c>
       <c r="C19" t="n">
-        <v>450.778861801497</v>
+        <v>350.8136623418758</v>
       </c>
       <c r="D19" t="n">
-        <v>291.284217124407</v>
+        <v>191.3190176647858</v>
       </c>
       <c r="E19" t="n">
-        <v>291.284217124407</v>
+        <v>30.40820253310529</v>
       </c>
       <c r="F19" t="n">
-        <v>291.284217124407</v>
+        <v>30.40820253310529</v>
       </c>
       <c r="G19" t="n">
-        <v>262.5248788037838</v>
+        <v>30.40820253310529</v>
       </c>
       <c r="H19" t="n">
-        <v>120.63847229648</v>
+        <v>30.40820253310529</v>
       </c>
       <c r="I19" t="n">
-        <v>30.40820253310526</v>
+        <v>30.40820253310529</v>
       </c>
       <c r="J19" t="n">
-        <v>104.6662819867953</v>
+        <v>39.66491835545897</v>
       </c>
       <c r="K19" t="n">
-        <v>358.105490771084</v>
+        <v>293.1041271397477</v>
       </c>
       <c r="L19" t="n">
-        <v>734.4069971182615</v>
+        <v>669.4056334869256</v>
       </c>
       <c r="M19" t="n">
-        <v>812.1246172019763</v>
+        <v>1045.707139834104</v>
       </c>
       <c r="N19" t="n">
-        <v>891.1765839794314</v>
+        <v>1397.374929040651</v>
       </c>
       <c r="O19" t="n">
-        <v>1074.99397060063</v>
+        <v>1462.165414279587</v>
       </c>
       <c r="P19" t="n">
-        <v>1383.61080878839</v>
+        <v>1509.884768994228</v>
       </c>
       <c r="Q19" t="n">
-        <v>1520.410126655263</v>
+        <v>1520.410126655264</v>
       </c>
       <c r="R19" t="n">
-        <v>1474.184756804167</v>
+        <v>1520.410126655264</v>
       </c>
       <c r="S19" t="n">
-        <v>1474.184756804167</v>
+        <v>1520.410126655264</v>
       </c>
       <c r="T19" t="n">
-        <v>1474.184756804167</v>
+        <v>1284.571912052214</v>
       </c>
       <c r="U19" t="n">
-        <v>1191.433977747145</v>
+        <v>1050.742975936715</v>
       </c>
       <c r="V19" t="n">
-        <v>917.548232686667</v>
+        <v>776.8572308762368</v>
       </c>
       <c r="W19" t="n">
-        <v>638.4785681955414</v>
+        <v>776.8572308762368</v>
       </c>
       <c r="X19" t="n">
-        <v>638.4785681955414</v>
+        <v>538.5133687359202</v>
       </c>
       <c r="Y19" t="n">
-        <v>638.4785681955414</v>
+        <v>538.5133687359202</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>958.6082534178126</v>
+        <v>42.1225264869962</v>
       </c>
       <c r="C20" t="n">
-        <v>958.6082534178126</v>
+        <v>42.1225264869962</v>
       </c>
       <c r="D20" t="n">
-        <v>958.6082534178126</v>
+        <v>42.1225264869962</v>
       </c>
       <c r="E20" t="n">
-        <v>574.6663022422412</v>
+        <v>42.1225264869962</v>
       </c>
       <c r="F20" t="n">
-        <v>190.7243510666697</v>
+        <v>42.1225264869962</v>
       </c>
       <c r="G20" t="n">
-        <v>30.40820253310526</v>
+        <v>42.1225264869962</v>
       </c>
       <c r="H20" t="n">
-        <v>30.40820253310526</v>
+        <v>42.1225264869962</v>
       </c>
       <c r="I20" t="n">
-        <v>30.40820253310526</v>
+        <v>30.40820253310529</v>
       </c>
       <c r="J20" t="n">
         <v>118.8631127885983</v>
       </c>
       <c r="K20" t="n">
-        <v>271.9831935811735</v>
+        <v>271.9831935811738</v>
       </c>
       <c r="L20" t="n">
-        <v>476.8874071605592</v>
+        <v>476.8874071605594</v>
       </c>
       <c r="M20" t="n">
-        <v>717.7089477476832</v>
+        <v>717.7089477476836</v>
       </c>
       <c r="N20" t="n">
-        <v>964.2958250261033</v>
+        <v>964.2958250261041</v>
       </c>
       <c r="O20" t="n">
-        <v>1191.740040054293</v>
+        <v>1191.740040054294</v>
       </c>
       <c r="P20" t="n">
-        <v>1371.885510125087</v>
+        <v>1371.885510125088</v>
       </c>
       <c r="Q20" t="n">
-        <v>1487.657293434418</v>
+        <v>1487.657293434419</v>
       </c>
       <c r="R20" t="n">
-        <v>1520.410126655263</v>
+        <v>1520.410126655264</v>
       </c>
       <c r="S20" t="n">
-        <v>1429.245532482706</v>
+        <v>1429.245532482707</v>
       </c>
       <c r="T20" t="n">
-        <v>1215.513865575958</v>
+        <v>1215.51386557596</v>
       </c>
       <c r="U20" t="n">
-        <v>958.6082534178126</v>
+        <v>1215.51386557596</v>
       </c>
       <c r="V20" t="n">
-        <v>958.6082534178126</v>
+        <v>865.6763109124404</v>
       </c>
       <c r="W20" t="n">
-        <v>958.6082534178126</v>
+        <v>481.9160100476089</v>
       </c>
       <c r="X20" t="n">
-        <v>958.6082534178126</v>
+        <v>426.064477662568</v>
       </c>
       <c r="Y20" t="n">
-        <v>958.6082534178126</v>
+        <v>42.1225264869962</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>510.7531273899346</v>
+        <v>401.7932475724392</v>
       </c>
       <c r="C21" t="n">
-        <v>376.7580561388803</v>
+        <v>267.7981763213849</v>
       </c>
       <c r="D21" t="n">
-        <v>259.8608983582727</v>
+        <v>150.9010185407773</v>
       </c>
       <c r="E21" t="n">
-        <v>139.3680823506007</v>
+        <v>30.40820253310529</v>
       </c>
       <c r="F21" t="n">
-        <v>30.40820253310526</v>
+        <v>30.40820253310529</v>
       </c>
       <c r="G21" t="n">
-        <v>30.40820253310526</v>
+        <v>30.40820253310529</v>
       </c>
       <c r="H21" t="n">
-        <v>30.40820253310526</v>
+        <v>30.40820253310529</v>
       </c>
       <c r="I21" t="n">
-        <v>30.40820253310526</v>
+        <v>30.40820253310529</v>
       </c>
       <c r="J21" t="n">
-        <v>129.775000864843</v>
+        <v>319.1385170615281</v>
       </c>
       <c r="K21" t="n">
-        <v>238.4456873703769</v>
+        <v>427.8092035670621</v>
       </c>
       <c r="L21" t="n">
-        <v>403.3274653405734</v>
+        <v>592.6909815372587</v>
       </c>
       <c r="M21" t="n">
-        <v>603.5762548705163</v>
+        <v>792.9397710672018</v>
       </c>
       <c r="N21" t="n">
-        <v>814.9605351913245</v>
+        <v>1004.32405138801</v>
       </c>
       <c r="O21" t="n">
-        <v>999.3368373581493</v>
+        <v>1188.700353554835</v>
       </c>
       <c r="P21" t="n">
-        <v>1139.485182920431</v>
+        <v>1328.848699117117</v>
       </c>
       <c r="Q21" t="n">
-        <v>1515.786689267608</v>
+        <v>1427.816972790628</v>
       </c>
       <c r="R21" t="n">
-        <v>1520.410126655263</v>
+        <v>1520.410126655264</v>
       </c>
       <c r="S21" t="n">
-        <v>1520.410126655263</v>
+        <v>1520.410126655264</v>
       </c>
       <c r="T21" t="n">
-        <v>1413.728796793436</v>
+        <v>1365.243459319083</v>
       </c>
       <c r="U21" t="n">
-        <v>1413.728796793436</v>
+        <v>1167.960796386738</v>
       </c>
       <c r="V21" t="n">
-        <v>1200.01726978647</v>
+        <v>954.2492693797719</v>
       </c>
       <c r="W21" t="n">
-        <v>986.7841015227984</v>
+        <v>741.0161011161007</v>
       </c>
       <c r="X21" t="n">
-        <v>810.4581196616912</v>
+        <v>701.4982398441957</v>
       </c>
       <c r="Y21" t="n">
-        <v>651.0561600255212</v>
+        <v>542.0962802080257</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>360.9962196484787</v>
+        <v>367.8835454368511</v>
       </c>
       <c r="C22" t="n">
-        <v>189.9028472101952</v>
+        <v>196.7901729985676</v>
       </c>
       <c r="D22" t="n">
-        <v>30.40820253310526</v>
+        <v>196.7901729985676</v>
       </c>
       <c r="E22" t="n">
-        <v>30.40820253310526</v>
+        <v>196.7901729985676</v>
       </c>
       <c r="F22" t="n">
-        <v>30.40820253310526</v>
+        <v>196.7901729985676</v>
       </c>
       <c r="G22" t="n">
-        <v>30.40820253310526</v>
+        <v>30.40820253310529</v>
       </c>
       <c r="H22" t="n">
-        <v>30.40820253310526</v>
+        <v>30.40820253310529</v>
       </c>
       <c r="I22" t="n">
-        <v>30.40820253310526</v>
+        <v>30.40820253310529</v>
       </c>
       <c r="J22" t="n">
-        <v>104.6662819867953</v>
+        <v>39.66491835545898</v>
       </c>
       <c r="K22" t="n">
-        <v>358.1054907710839</v>
+        <v>86.82393355403357</v>
       </c>
       <c r="L22" t="n">
-        <v>554.8500122370618</v>
+        <v>333.2608952380531</v>
       </c>
       <c r="M22" t="n">
-        <v>931.1515185842394</v>
+        <v>709.562401585231</v>
       </c>
       <c r="N22" t="n">
-        <v>1010.203485361694</v>
+        <v>1085.863907932409</v>
       </c>
       <c r="O22" t="n">
-        <v>1074.99397060063</v>
+        <v>1462.165414279587</v>
       </c>
       <c r="P22" t="n">
-        <v>1383.61080878839</v>
+        <v>1509.884768994228</v>
       </c>
       <c r="Q22" t="n">
-        <v>1520.410126655263</v>
+        <v>1520.410126655264</v>
       </c>
       <c r="R22" t="n">
-        <v>1520.410126655263</v>
+        <v>1520.410126655264</v>
       </c>
       <c r="S22" t="n">
-        <v>1520.410126655263</v>
+        <v>1520.410126655264</v>
       </c>
       <c r="T22" t="n">
-        <v>1520.410126655263</v>
+        <v>1292.548557642926</v>
       </c>
       <c r="U22" t="n">
-        <v>1520.410126655263</v>
+        <v>1292.548557642926</v>
       </c>
       <c r="V22" t="n">
-        <v>1290.845151285201</v>
+        <v>1018.662812582447</v>
       </c>
       <c r="W22" t="n">
-        <v>1011.775486794075</v>
+        <v>1018.662812582447</v>
       </c>
       <c r="X22" t="n">
-        <v>773.4316246537584</v>
+        <v>780.3189504421308</v>
       </c>
       <c r="Y22" t="n">
-        <v>548.6959260425231</v>
+        <v>555.5832518308955</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1675.793531120958</v>
+        <v>733.707112676266</v>
       </c>
       <c r="C23" t="n">
-        <v>1265.668940434228</v>
+        <v>733.707112676266</v>
       </c>
       <c r="D23" t="n">
-        <v>861.2050105272881</v>
+        <v>733.707112676266</v>
       </c>
       <c r="E23" t="n">
-        <v>446.8647950441849</v>
+        <v>733.707112676266</v>
       </c>
       <c r="F23" t="n">
-        <v>446.8647950441849</v>
+        <v>733.707112676266</v>
       </c>
       <c r="G23" t="n">
-        <v>40.48643694606873</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="H23" t="n">
         <v>40.48643694606873</v>
@@ -5998,7 +5998,7 @@
         <v>641.1850750879078</v>
       </c>
       <c r="M23" t="n">
-        <v>953.2429319501307</v>
+        <v>953.2429319501309</v>
       </c>
       <c r="N23" t="n">
         <v>1272.218803576257</v>
@@ -6007,7 +6007,7 @@
         <v>1568.017893256778</v>
       </c>
       <c r="P23" t="n">
-        <v>1806.502667397418</v>
+        <v>1806.502667397419</v>
       </c>
       <c r="Q23" t="n">
         <v>1966.084838463273</v>
@@ -6022,19 +6022,19 @@
         <v>2024.321847303436</v>
       </c>
       <c r="U23" t="n">
-        <v>2024.321847303436</v>
+        <v>1767.449349643671</v>
       </c>
       <c r="V23" t="n">
-        <v>2024.321847303436</v>
+        <v>1518.110811372145</v>
       </c>
       <c r="W23" t="n">
-        <v>2024.321847303436</v>
+        <v>1134.350510507313</v>
       </c>
       <c r="X23" t="n">
-        <v>2024.321847303436</v>
+        <v>733.707112676266</v>
       </c>
       <c r="Y23" t="n">
-        <v>1675.793531120958</v>
+        <v>733.707112676266</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>685.1682898090093</v>
+        <v>685.1682898090091</v>
       </c>
       <c r="C24" t="n">
-        <v>551.1732185579549</v>
+        <v>551.1732185579548</v>
       </c>
       <c r="D24" t="n">
-        <v>434.2760607773473</v>
+        <v>434.2760607773472</v>
       </c>
       <c r="E24" t="n">
-        <v>313.7832447696753</v>
+        <v>313.7832447696752</v>
       </c>
       <c r="F24" t="n">
-        <v>204.8233649521799</v>
+        <v>204.8233649521798</v>
       </c>
       <c r="G24" t="n">
         <v>99.09057352692763</v>
@@ -6068,22 +6068,22 @@
         <v>62.57863487475247</v>
       </c>
       <c r="J24" t="n">
-        <v>128.1484679399048</v>
+        <v>371.8168719145381</v>
       </c>
       <c r="K24" t="n">
-        <v>629.1681251475052</v>
+        <v>752.324726338493</v>
       </c>
       <c r="L24" t="n">
-        <v>841.1807096691625</v>
+        <v>964.3373108601503</v>
       </c>
       <c r="M24" t="n">
-        <v>1096.428927428131</v>
+        <v>1219.585528619118</v>
       </c>
       <c r="N24" t="n">
-        <v>1364.26830718728</v>
+        <v>1487.424908378268</v>
       </c>
       <c r="O24" t="n">
-        <v>1600.28999594126</v>
+        <v>1723.446597132247</v>
       </c>
       <c r="P24" t="n">
         <v>1905.04491856843</v>
@@ -6098,7 +6098,7 @@
         <v>1939.686028373151</v>
       </c>
       <c r="T24" t="n">
-        <v>1785.412051570318</v>
+        <v>1785.412051570317</v>
       </c>
       <c r="U24" t="n">
         <v>1588.14395921251</v>
@@ -6110,10 +6110,10 @@
         <v>1161.199263941873</v>
       </c>
       <c r="X24" t="n">
-        <v>984.8732820807659</v>
+        <v>984.8732820807658</v>
       </c>
       <c r="Y24" t="n">
-        <v>825.4713224445959</v>
+        <v>825.4713224445958</v>
       </c>
     </row>
     <row r="25">
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>96.90316016604609</v>
+        <v>322.4795997594207</v>
       </c>
       <c r="C25" t="n">
-        <v>40.48643694606873</v>
+        <v>151.3862273211372</v>
       </c>
       <c r="D25" t="n">
-        <v>40.48643694606873</v>
+        <v>151.3862273211372</v>
       </c>
       <c r="E25" t="n">
-        <v>40.48643694606873</v>
+        <v>151.3862273211372</v>
       </c>
       <c r="F25" t="n">
         <v>40.48643694606873</v>
@@ -6147,52 +6147,52 @@
         <v>40.48643694606873</v>
       </c>
       <c r="J25" t="n">
-        <v>127.6105279304289</v>
+        <v>62.60916429909252</v>
       </c>
       <c r="K25" t="n">
-        <v>195.9123523564644</v>
+        <v>130.910988725128</v>
       </c>
       <c r="L25" t="n">
-        <v>295.4270201960774</v>
+        <v>544.4047677997642</v>
       </c>
       <c r="M25" t="n">
-        <v>746.6372385819579</v>
+        <v>995.6149861856447</v>
       </c>
       <c r="N25" t="n">
-        <v>1185.571465158004</v>
+        <v>1434.549212761691</v>
       </c>
       <c r="O25" t="n">
-        <v>1591.158806675506</v>
+        <v>1840.136554279193</v>
       </c>
       <c r="P25" t="n">
-        <v>1872.284155743751</v>
+        <v>1998.558115949588</v>
       </c>
       <c r="Q25" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="R25" t="n">
-        <v>1986.445114104106</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S25" t="n">
-        <v>1818.423362863342</v>
+        <v>1856.300096062672</v>
       </c>
       <c r="T25" t="n">
-        <v>1583.378488176655</v>
+        <v>1621.255221375985</v>
       </c>
       <c r="U25" t="n">
-        <v>1300.637836863246</v>
+        <v>1338.514570062576</v>
       </c>
       <c r="V25" t="n">
-        <v>1026.752091802768</v>
+        <v>1064.628825002098</v>
       </c>
       <c r="W25" t="n">
-        <v>747.6824273116424</v>
+        <v>785.5591605109726</v>
       </c>
       <c r="X25" t="n">
-        <v>509.3385651713258</v>
+        <v>547.215298370656</v>
       </c>
       <c r="Y25" t="n">
-        <v>284.6028665600905</v>
+        <v>322.4795997594207</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>195.4921016689779</v>
+        <v>606.4539422637519</v>
       </c>
       <c r="C26" t="n">
-        <v>195.4921016689779</v>
+        <v>196.329351577022</v>
       </c>
       <c r="D26" t="n">
-        <v>40.48643694606873</v>
+        <v>196.329351577022</v>
       </c>
       <c r="E26" t="n">
-        <v>40.48643694606873</v>
+        <v>196.329351577022</v>
       </c>
       <c r="F26" t="n">
-        <v>40.48643694606873</v>
+        <v>196.329351577022</v>
       </c>
       <c r="G26" t="n">
         <v>40.48643694606873</v>
@@ -6229,13 +6229,13 @@
         <v>167.5334271492898</v>
       </c>
       <c r="K26" t="n">
-        <v>372.2593058752968</v>
+        <v>372.2593058752965</v>
       </c>
       <c r="L26" t="n">
-        <v>641.1850750879082</v>
+        <v>641.1850750879078</v>
       </c>
       <c r="M26" t="n">
-        <v>953.2429319501312</v>
+        <v>953.2429319501307</v>
       </c>
       <c r="N26" t="n">
         <v>1272.218803576257</v>
@@ -6244,7 +6244,7 @@
         <v>1568.017893256778</v>
       </c>
       <c r="P26" t="n">
-        <v>1806.502667397419</v>
+        <v>1806.502667397418</v>
       </c>
       <c r="Q26" t="n">
         <v>1966.084838463273</v>
@@ -6253,25 +6253,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S26" t="n">
-        <v>1942.589711028803</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="T26" t="n">
-        <v>1730.670028080286</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="U26" t="n">
-        <v>1730.670028080286</v>
+        <v>1767.449349643671</v>
       </c>
       <c r="V26" t="n">
-        <v>1380.832473416767</v>
+        <v>1417.611794980151</v>
       </c>
       <c r="W26" t="n">
-        <v>997.0721725519352</v>
+        <v>1417.611794980151</v>
       </c>
       <c r="X26" t="n">
-        <v>596.4287747208878</v>
+        <v>1417.611794980151</v>
       </c>
       <c r="Y26" t="n">
-        <v>195.4921016689779</v>
+        <v>1016.675121928241</v>
       </c>
     </row>
     <row r="27">
@@ -6308,22 +6308,22 @@
         <v>371.8168719145381</v>
       </c>
       <c r="K27" t="n">
-        <v>664.3550098615118</v>
+        <v>515.5388644458296</v>
       </c>
       <c r="L27" t="n">
-        <v>876.3675943831691</v>
+        <v>727.551448967487</v>
       </c>
       <c r="M27" t="n">
-        <v>1131.615812142137</v>
+        <v>982.799666726455</v>
       </c>
       <c r="N27" t="n">
-        <v>1399.455191901287</v>
+        <v>1250.639046485604</v>
       </c>
       <c r="O27" t="n">
-        <v>1635.476880655266</v>
+        <v>1486.660735239584</v>
       </c>
       <c r="P27" t="n">
-        <v>1817.075202091449</v>
+        <v>1668.259056675767</v>
       </c>
       <c r="Q27" t="n">
         <v>1918.251596225539</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>811.7322643533058</v>
+        <v>831.9549021084979</v>
       </c>
       <c r="C28" t="n">
-        <v>640.6388919150223</v>
+        <v>831.9549021084979</v>
       </c>
       <c r="D28" t="n">
-        <v>532.2246731330461</v>
+        <v>672.4602574314079</v>
       </c>
       <c r="E28" t="n">
-        <v>371.3138580013656</v>
+        <v>511.5494422997273</v>
       </c>
       <c r="F28" t="n">
-        <v>206.6827321119568</v>
+        <v>346.9183164103185</v>
       </c>
       <c r="G28" t="n">
-        <v>40.48643694606873</v>
+        <v>180.7220212444305</v>
       </c>
       <c r="H28" t="n">
         <v>40.48643694606873</v>
@@ -6384,52 +6384,52 @@
         <v>40.48643694606873</v>
       </c>
       <c r="J28" t="n">
-        <v>127.6105279304289</v>
+        <v>109.0965795970514</v>
       </c>
       <c r="K28" t="n">
-        <v>195.9123523564644</v>
+        <v>177.3984040230869</v>
       </c>
       <c r="L28" t="n">
-        <v>609.4061314311004</v>
+        <v>590.892183097723</v>
       </c>
       <c r="M28" t="n">
-        <v>1060.616349816981</v>
+        <v>697.136051969318</v>
       </c>
       <c r="N28" t="n">
-        <v>1499.550576393027</v>
+        <v>1136.070278545364</v>
       </c>
       <c r="O28" t="n">
-        <v>1905.137917910529</v>
+        <v>1541.657620062866</v>
       </c>
       <c r="P28" t="n">
-        <v>1974.866970118296</v>
+        <v>1872.284155743751</v>
       </c>
       <c r="Q28" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="R28" t="n">
-        <v>2024.321847303436</v>
+        <v>1986.445114104106</v>
       </c>
       <c r="S28" t="n">
-        <v>2024.321847303436</v>
+        <v>1818.423362863342</v>
       </c>
       <c r="T28" t="n">
-        <v>2024.321847303436</v>
+        <v>1583.378488176655</v>
       </c>
       <c r="U28" t="n">
-        <v>1741.581195990028</v>
+        <v>1300.637836863246</v>
       </c>
       <c r="V28" t="n">
-        <v>1741.581195990028</v>
+        <v>1300.637836863246</v>
       </c>
       <c r="W28" t="n">
-        <v>1462.511531498902</v>
+        <v>1021.56817237212</v>
       </c>
       <c r="X28" t="n">
-        <v>1224.167669358585</v>
+        <v>1021.56817237212</v>
       </c>
       <c r="Y28" t="n">
-        <v>999.4319707473502</v>
+        <v>831.9549021084979</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1614.100667638947</v>
+        <v>1564.862115409308</v>
       </c>
       <c r="C29" t="n">
-        <v>1203.976076952217</v>
+        <v>1154.737524722578</v>
       </c>
       <c r="D29" t="n">
-        <v>875.8570644754845</v>
+        <v>1154.737524722578</v>
       </c>
       <c r="E29" t="n">
-        <v>461.5168489923812</v>
+        <v>1154.737524722578</v>
       </c>
       <c r="F29" t="n">
-        <v>40.48643694606873</v>
+        <v>733.707112676266</v>
       </c>
       <c r="G29" t="n">
-        <v>40.48643694606873</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="H29" t="n">
         <v>40.48643694606873</v>
       </c>
       <c r="I29" t="n">
-        <v>44.64574590746555</v>
+        <v>44.64574590746565</v>
       </c>
       <c r="J29" t="n">
-        <v>167.5334271492901</v>
+        <v>167.53342714929</v>
       </c>
       <c r="K29" t="n">
-        <v>372.2593058752967</v>
+        <v>372.2593058752966</v>
       </c>
       <c r="L29" t="n">
-        <v>641.185075087908</v>
+        <v>641.1850750879078</v>
       </c>
       <c r="M29" t="n">
-        <v>953.2429319501309</v>
+        <v>953.2429319501307</v>
       </c>
       <c r="N29" t="n">
         <v>1272.218803576257</v>
@@ -6481,7 +6481,7 @@
         <v>1568.017893256778</v>
       </c>
       <c r="P29" t="n">
-        <v>1806.502667397418</v>
+        <v>1806.502667397419</v>
       </c>
       <c r="Q29" t="n">
         <v>1966.084838463273</v>
@@ -6499,16 +6499,16 @@
         <v>2024.321847303436</v>
       </c>
       <c r="V29" t="n">
-        <v>2024.321847303436</v>
+        <v>1975.083295073798</v>
       </c>
       <c r="W29" t="n">
-        <v>2024.321847303436</v>
+        <v>1975.083295073798</v>
       </c>
       <c r="X29" t="n">
-        <v>2024.321847303436</v>
+        <v>1975.083295073798</v>
       </c>
       <c r="Y29" t="n">
-        <v>2024.321847303436</v>
+        <v>1975.083295073798</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>685.1682898090091</v>
+        <v>685.1682898090093</v>
       </c>
       <c r="C30" t="n">
-        <v>551.1732185579548</v>
+        <v>551.173218557955</v>
       </c>
       <c r="D30" t="n">
-        <v>434.2760607773472</v>
+        <v>434.2760607773475</v>
       </c>
       <c r="E30" t="n">
-        <v>313.7832447696752</v>
+        <v>313.7832447696755</v>
       </c>
       <c r="F30" t="n">
-        <v>204.8233649521798</v>
+        <v>204.8233649521801</v>
       </c>
       <c r="G30" t="n">
-        <v>99.09057352692763</v>
+        <v>99.09057352692776</v>
       </c>
       <c r="H30" t="n">
         <v>40.48643694606873</v>
       </c>
       <c r="I30" t="n">
-        <v>43.01083102505507</v>
+        <v>62.57863487475247</v>
       </c>
       <c r="J30" t="n">
-        <v>352.2490680648407</v>
+        <v>371.8168719145381</v>
       </c>
       <c r="K30" t="n">
-        <v>495.9710605961322</v>
+        <v>515.5388644458296</v>
       </c>
       <c r="L30" t="n">
-        <v>707.9836451177896</v>
+        <v>727.551448967487</v>
       </c>
       <c r="M30" t="n">
-        <v>963.2318628767576</v>
+        <v>982.799666726455</v>
       </c>
       <c r="N30" t="n">
-        <v>1231.071242635907</v>
+        <v>1250.639046485604</v>
       </c>
       <c r="O30" t="n">
-        <v>1467.092931389886</v>
+        <v>1486.660735239584</v>
       </c>
       <c r="P30" t="n">
-        <v>1648.691252826069</v>
+        <v>1668.259056675767</v>
       </c>
       <c r="Q30" t="n">
-        <v>2006.22131270252</v>
+        <v>1918.25159622554</v>
       </c>
       <c r="R30" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="S30" t="n">
-        <v>1939.686028373151</v>
+        <v>1939.686028373152</v>
       </c>
       <c r="T30" t="n">
-        <v>1785.412051570317</v>
+        <v>1785.412051570318</v>
       </c>
       <c r="U30" t="n">
-        <v>1588.14395921251</v>
+        <v>1588.143959212511</v>
       </c>
       <c r="V30" t="n">
-        <v>1374.432432205544</v>
+        <v>1374.432432205545</v>
       </c>
       <c r="W30" t="n">
         <v>1161.199263941873</v>
       </c>
       <c r="X30" t="n">
-        <v>984.8732820807658</v>
+        <v>984.8732820807659</v>
       </c>
       <c r="Y30" t="n">
-        <v>825.4713224445958</v>
+        <v>825.4713224445959</v>
       </c>
     </row>
     <row r="31">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>264.9249114068106</v>
+        <v>601.5492642505466</v>
       </c>
       <c r="C31" t="n">
-        <v>264.9249114068106</v>
+        <v>601.5492642505466</v>
       </c>
       <c r="D31" t="n">
-        <v>264.9249114068106</v>
+        <v>442.0546195734566</v>
       </c>
       <c r="E31" t="n">
-        <v>264.9249114068106</v>
+        <v>281.1438044417761</v>
       </c>
       <c r="F31" t="n">
-        <v>100.2937855174018</v>
+        <v>116.5126785523673</v>
       </c>
       <c r="G31" t="n">
         <v>40.48643694606873</v>
@@ -6621,52 +6621,52 @@
         <v>40.48643694606873</v>
       </c>
       <c r="J31" t="n">
-        <v>62.60916429909252</v>
+        <v>127.6105279304289</v>
       </c>
       <c r="K31" t="n">
-        <v>130.910988725128</v>
+        <v>195.9123523564644</v>
       </c>
       <c r="L31" t="n">
-        <v>544.4047677997642</v>
+        <v>609.4061314311004</v>
       </c>
       <c r="M31" t="n">
-        <v>995.6149861856447</v>
+        <v>1060.616349816981</v>
       </c>
       <c r="N31" t="n">
-        <v>1434.549212761691</v>
+        <v>1499.550576393027</v>
       </c>
       <c r="O31" t="n">
-        <v>1840.136554279193</v>
+        <v>1905.137917910529</v>
       </c>
       <c r="P31" t="n">
-        <v>1998.558115949588</v>
+        <v>1974.866970118296</v>
       </c>
       <c r="Q31" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="R31" t="n">
-        <v>1986.445114104106</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S31" t="n">
-        <v>1986.445114104106</v>
+        <v>1856.300096062672</v>
       </c>
       <c r="T31" t="n">
-        <v>1751.400239417419</v>
+        <v>1621.255221375985</v>
       </c>
       <c r="U31" t="n">
-        <v>1468.65958810401</v>
+        <v>1338.514570062576</v>
       </c>
       <c r="V31" t="n">
-        <v>1194.773843043532</v>
+        <v>1064.628825002098</v>
       </c>
       <c r="W31" t="n">
-        <v>915.7041785524068</v>
+        <v>1064.628825002098</v>
       </c>
       <c r="X31" t="n">
-        <v>677.3603164120902</v>
+        <v>826.2849628617819</v>
       </c>
       <c r="Y31" t="n">
-        <v>452.6246178008549</v>
+        <v>601.5492642505466</v>
       </c>
     </row>
     <row r="32">
@@ -6676,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1614.100667638947</v>
+        <v>524.7218059891187</v>
       </c>
       <c r="C32" t="n">
-        <v>1203.976076952217</v>
+        <v>524.7218059891187</v>
       </c>
       <c r="D32" t="n">
-        <v>867.8952070904973</v>
+        <v>524.7218059891187</v>
       </c>
       <c r="E32" t="n">
-        <v>867.8952070904973</v>
+        <v>110.3815905060154</v>
       </c>
       <c r="F32" t="n">
-        <v>446.8647950441849</v>
+        <v>110.3815905060154</v>
       </c>
       <c r="G32" t="n">
-        <v>40.48643694606873</v>
+        <v>110.3815905060154</v>
       </c>
       <c r="H32" t="n">
         <v>40.48643694606873</v>
       </c>
       <c r="I32" t="n">
-        <v>44.64574590746554</v>
+        <v>44.64574590746543</v>
       </c>
       <c r="J32" t="n">
-        <v>167.5334271492899</v>
+        <v>167.5334271492898</v>
       </c>
       <c r="K32" t="n">
-        <v>372.2593058752965</v>
+        <v>372.2593058752964</v>
       </c>
       <c r="L32" t="n">
-        <v>641.1850750879078</v>
+        <v>641.1850750879075</v>
       </c>
       <c r="M32" t="n">
-        <v>953.2429319501309</v>
+        <v>953.2429319501305</v>
       </c>
       <c r="N32" t="n">
         <v>1272.218803576257</v>
       </c>
       <c r="O32" t="n">
-        <v>1568.017893256778</v>
+        <v>1568.017893256777</v>
       </c>
       <c r="P32" t="n">
         <v>1806.502667397418</v>
@@ -6727,25 +6727,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S32" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="T32" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="U32" t="n">
-        <v>2024.321847303436</v>
+        <v>1685.717213369037</v>
       </c>
       <c r="V32" t="n">
-        <v>2024.321847303436</v>
+        <v>1335.879658705518</v>
       </c>
       <c r="W32" t="n">
-        <v>2024.321847303436</v>
+        <v>1335.879658705518</v>
       </c>
       <c r="X32" t="n">
-        <v>2024.321847303436</v>
+        <v>1335.879658705518</v>
       </c>
       <c r="Y32" t="n">
-        <v>2024.321847303436</v>
+        <v>934.9429856536082</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>40.48643694606873</v>
       </c>
       <c r="I33" t="n">
-        <v>43.01083102505507</v>
+        <v>62.57863487475247</v>
       </c>
       <c r="J33" t="n">
-        <v>251.3050691308925</v>
+        <v>371.8168719145381</v>
       </c>
       <c r="K33" t="n">
-        <v>752.324726338493</v>
+        <v>515.5388644458296</v>
       </c>
       <c r="L33" t="n">
-        <v>964.3373108601503</v>
+        <v>727.551448967487</v>
       </c>
       <c r="M33" t="n">
-        <v>1219.585528619118</v>
+        <v>982.799666726455</v>
       </c>
       <c r="N33" t="n">
-        <v>1487.424908378268</v>
+        <v>1250.639046485604</v>
       </c>
       <c r="O33" t="n">
-        <v>1723.446597132247</v>
+        <v>1486.660735239584</v>
       </c>
       <c r="P33" t="n">
-        <v>1905.04491856843</v>
+        <v>1668.259056675767</v>
       </c>
       <c r="Q33" t="n">
-        <v>2006.22131270252</v>
+        <v>1918.251596225539</v>
       </c>
       <c r="R33" t="n">
         <v>2024.321847303436</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1023.453104349139</v>
+        <v>134.7798933653763</v>
       </c>
       <c r="C34" t="n">
-        <v>852.3597319108551</v>
+        <v>134.7798933653763</v>
       </c>
       <c r="D34" t="n">
-        <v>692.8650872337651</v>
+        <v>134.7798933653763</v>
       </c>
       <c r="E34" t="n">
-        <v>531.9542721020846</v>
+        <v>134.7798933653763</v>
       </c>
       <c r="F34" t="n">
-        <v>367.3231462126759</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="G34" t="n">
-        <v>265.3685283624266</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="H34" t="n">
-        <v>125.1329440640648</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="I34" t="n">
         <v>40.48643694606873</v>
       </c>
       <c r="J34" t="n">
-        <v>62.60916429909252</v>
+        <v>127.6105279304289</v>
       </c>
       <c r="K34" t="n">
-        <v>130.910988725128</v>
+        <v>195.9123523564644</v>
       </c>
       <c r="L34" t="n">
-        <v>544.4047677997642</v>
+        <v>609.4061314311004</v>
       </c>
       <c r="M34" t="n">
-        <v>995.6149861856447</v>
+        <v>1060.616349816981</v>
       </c>
       <c r="N34" t="n">
-        <v>1434.549212761691</v>
+        <v>1499.550576393027</v>
       </c>
       <c r="O34" t="n">
-        <v>1840.136554279193</v>
+        <v>1905.137917910529</v>
       </c>
       <c r="P34" t="n">
-        <v>1998.558115949588</v>
+        <v>1974.866970118296</v>
       </c>
       <c r="Q34" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="R34" t="n">
-        <v>1986.445114104106</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S34" t="n">
-        <v>1818.423362863342</v>
+        <v>1856.300096062672</v>
       </c>
       <c r="T34" t="n">
-        <v>1818.423362863342</v>
+        <v>1621.255221375985</v>
       </c>
       <c r="U34" t="n">
-        <v>1535.682711549933</v>
+        <v>1338.514570062576</v>
       </c>
       <c r="V34" t="n">
-        <v>1261.796966489455</v>
+        <v>1064.628825002098</v>
       </c>
       <c r="W34" t="n">
-        <v>1261.796966489455</v>
+        <v>785.5591605109726</v>
       </c>
       <c r="X34" t="n">
-        <v>1023.453104349139</v>
+        <v>547.215298370656</v>
       </c>
       <c r="Y34" t="n">
-        <v>1023.453104349139</v>
+        <v>322.4795997594207</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.100667638947</v>
+        <v>731.7926844850895</v>
       </c>
       <c r="C35" t="n">
-        <v>1203.976076952217</v>
+        <v>731.7926844850895</v>
       </c>
       <c r="D35" t="n">
-        <v>1203.976076952217</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="E35" t="n">
-        <v>789.6358614691135</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="F35" t="n">
-        <v>368.605449422801</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="G35" t="n">
-        <v>40.48643694606873</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="H35" t="n">
         <v>40.48643694606873</v>
       </c>
       <c r="I35" t="n">
-        <v>44.64574590746543</v>
+        <v>44.6457459074652</v>
       </c>
       <c r="J35" t="n">
-        <v>167.5334271492898</v>
+        <v>167.5334271492895</v>
       </c>
       <c r="K35" t="n">
-        <v>372.2593058752968</v>
+        <v>372.2593058752963</v>
       </c>
       <c r="L35" t="n">
-        <v>641.1850750879082</v>
+        <v>641.1850750879075</v>
       </c>
       <c r="M35" t="n">
-        <v>953.2429319501312</v>
+        <v>953.2429319501305</v>
       </c>
       <c r="N35" t="n">
         <v>1272.218803576257</v>
@@ -6955,7 +6955,7 @@
         <v>1568.017893256778</v>
       </c>
       <c r="P35" t="n">
-        <v>1806.502667397419</v>
+        <v>1806.502667397418</v>
       </c>
       <c r="Q35" t="n">
         <v>1966.084838463273</v>
@@ -6964,25 +6964,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S35" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="T35" t="n">
-        <v>2024.321847303436</v>
+        <v>1730.670028080286</v>
       </c>
       <c r="U35" t="n">
-        <v>2024.321847303436</v>
+        <v>1473.79753042052</v>
       </c>
       <c r="V35" t="n">
-        <v>2024.321847303436</v>
+        <v>1132.436082316137</v>
       </c>
       <c r="W35" t="n">
-        <v>2024.321847303436</v>
+        <v>1132.436082316137</v>
       </c>
       <c r="X35" t="n">
-        <v>2024.321847303436</v>
+        <v>731.7926844850895</v>
       </c>
       <c r="Y35" t="n">
-        <v>2024.321847303436</v>
+        <v>731.7926844850895</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>685.1682898090093</v>
+        <v>685.1682898090091</v>
       </c>
       <c r="C36" t="n">
-        <v>551.1732185579549</v>
+        <v>551.1732185579548</v>
       </c>
       <c r="D36" t="n">
-        <v>434.2760607773473</v>
+        <v>434.2760607773472</v>
       </c>
       <c r="E36" t="n">
-        <v>313.7832447696753</v>
+        <v>313.7832447696752</v>
       </c>
       <c r="F36" t="n">
-        <v>204.8233649521799</v>
+        <v>204.8233649521798</v>
       </c>
       <c r="G36" t="n">
         <v>99.09057352692763</v>
@@ -7019,49 +7019,49 @@
         <v>371.8168719145381</v>
       </c>
       <c r="K36" t="n">
-        <v>515.5388644458296</v>
+        <v>664.3550098615118</v>
       </c>
       <c r="L36" t="n">
-        <v>727.551448967487</v>
+        <v>876.3675943831691</v>
       </c>
       <c r="M36" t="n">
-        <v>982.799666726455</v>
+        <v>1131.615812142137</v>
       </c>
       <c r="N36" t="n">
-        <v>1250.639046485604</v>
+        <v>1399.455191901287</v>
       </c>
       <c r="O36" t="n">
-        <v>1486.660735239584</v>
+        <v>1635.476880655266</v>
       </c>
       <c r="P36" t="n">
-        <v>1668.259056675767</v>
+        <v>1817.075202091449</v>
       </c>
       <c r="Q36" t="n">
-        <v>2006.22131270252</v>
+        <v>1918.251596225539</v>
       </c>
       <c r="R36" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="S36" t="n">
-        <v>1939.686028373152</v>
+        <v>1939.686028373151</v>
       </c>
       <c r="T36" t="n">
-        <v>1785.412051570318</v>
+        <v>1785.412051570317</v>
       </c>
       <c r="U36" t="n">
-        <v>1588.143959212511</v>
+        <v>1588.14395921251</v>
       </c>
       <c r="V36" t="n">
-        <v>1374.432432205545</v>
+        <v>1374.432432205544</v>
       </c>
       <c r="W36" t="n">
         <v>1161.199263941873</v>
       </c>
       <c r="X36" t="n">
-        <v>984.8732820807659</v>
+        <v>984.8732820807658</v>
       </c>
       <c r="Y36" t="n">
-        <v>825.4713224445959</v>
+        <v>825.4713224445958</v>
       </c>
     </row>
     <row r="37">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>96.90316016604609</v>
+        <v>134.7798933653763</v>
       </c>
       <c r="C37" t="n">
-        <v>96.90316016604609</v>
+        <v>134.7798933653763</v>
       </c>
       <c r="D37" t="n">
-        <v>96.90316016604609</v>
+        <v>134.7798933653763</v>
       </c>
       <c r="E37" t="n">
-        <v>96.90316016604609</v>
+        <v>134.7798933653763</v>
       </c>
       <c r="F37" t="n">
-        <v>96.90316016604609</v>
+        <v>134.7798933653763</v>
       </c>
       <c r="G37" t="n">
-        <v>96.90316016604609</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="H37" t="n">
         <v>40.48643694606873</v>
@@ -7107,10 +7107,10 @@
         <v>1266.896543402695</v>
       </c>
       <c r="N37" t="n">
-        <v>1373.796468531156</v>
+        <v>1705.830769978742</v>
       </c>
       <c r="O37" t="n">
-        <v>1541.657620062866</v>
+        <v>1796.343352077502</v>
       </c>
       <c r="P37" t="n">
         <v>1872.284155743751</v>
@@ -7119,28 +7119,28 @@
         <v>2024.321847303436</v>
       </c>
       <c r="R37" t="n">
-        <v>1986.445114104106</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S37" t="n">
-        <v>1818.423362863342</v>
+        <v>1856.300096062672</v>
       </c>
       <c r="T37" t="n">
-        <v>1583.378488176655</v>
+        <v>1621.255221375985</v>
       </c>
       <c r="U37" t="n">
-        <v>1300.637836863246</v>
+        <v>1338.514570062576</v>
       </c>
       <c r="V37" t="n">
-        <v>1026.752091802768</v>
+        <v>1064.628825002098</v>
       </c>
       <c r="W37" t="n">
-        <v>747.6824273116424</v>
+        <v>785.5591605109726</v>
       </c>
       <c r="X37" t="n">
-        <v>509.3385651713258</v>
+        <v>547.215298370656</v>
       </c>
       <c r="Y37" t="n">
-        <v>284.6028665600905</v>
+        <v>322.4795997594207</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1690.445585069154</v>
+        <v>1269.415173022841</v>
       </c>
       <c r="C38" t="n">
-        <v>1280.320994382424</v>
+        <v>859.2905823361116</v>
       </c>
       <c r="D38" t="n">
-        <v>875.8570644754845</v>
+        <v>454.826652429172</v>
       </c>
       <c r="E38" t="n">
-        <v>461.5168489923812</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="F38" t="n">
         <v>40.48643694606873</v>
@@ -7177,19 +7177,19 @@
         <v>167.5334271492898</v>
       </c>
       <c r="K38" t="n">
-        <v>372.2593058752964</v>
+        <v>372.2593058752965</v>
       </c>
       <c r="L38" t="n">
         <v>641.1850750879078</v>
       </c>
       <c r="M38" t="n">
-        <v>953.2429319501305</v>
+        <v>953.2429319501307</v>
       </c>
       <c r="N38" t="n">
         <v>1272.218803576257</v>
       </c>
       <c r="O38" t="n">
-        <v>1568.017893256777</v>
+        <v>1568.017893256778</v>
       </c>
       <c r="P38" t="n">
         <v>1806.502667397418</v>
@@ -7201,25 +7201,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S38" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="T38" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="U38" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="V38" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="W38" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="X38" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="Y38" t="n">
-        <v>2024.321847303436</v>
+        <v>1679.636352687331</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>685.1682898090093</v>
+        <v>685.1682898090091</v>
       </c>
       <c r="C39" t="n">
-        <v>551.1732185579549</v>
+        <v>551.1732185579548</v>
       </c>
       <c r="D39" t="n">
-        <v>434.2760607773473</v>
+        <v>434.2760607773472</v>
       </c>
       <c r="E39" t="n">
-        <v>313.7832447696753</v>
+        <v>313.7832447696752</v>
       </c>
       <c r="F39" t="n">
-        <v>204.8233649521799</v>
+        <v>204.8233649521798</v>
       </c>
       <c r="G39" t="n">
-        <v>99.09057352692774</v>
+        <v>99.09057352692763</v>
       </c>
       <c r="H39" t="n">
         <v>40.48643694606873</v>
       </c>
       <c r="I39" t="n">
-        <v>43.01083102505507</v>
+        <v>62.57863487475247</v>
       </c>
       <c r="J39" t="n">
-        <v>108.5806640902074</v>
+        <v>371.8168719145381</v>
       </c>
       <c r="K39" t="n">
-        <v>352.4814632649828</v>
+        <v>664.3550098615118</v>
       </c>
       <c r="L39" t="n">
-        <v>564.4940477866402</v>
+        <v>876.3675943831691</v>
       </c>
       <c r="M39" t="n">
-        <v>819.7422655456082</v>
+        <v>1131.615812142137</v>
       </c>
       <c r="N39" t="n">
-        <v>1087.581645304758</v>
+        <v>1399.455191901287</v>
       </c>
       <c r="O39" t="n">
-        <v>1323.603334058737</v>
+        <v>1635.476880655266</v>
       </c>
       <c r="P39" t="n">
-        <v>1505.20165549492</v>
+        <v>1817.075202091449</v>
       </c>
       <c r="Q39" t="n">
-        <v>2006.22131270252</v>
+        <v>1918.251596225539</v>
       </c>
       <c r="R39" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="S39" t="n">
-        <v>1939.686028373152</v>
+        <v>1939.686028373151</v>
       </c>
       <c r="T39" t="n">
-        <v>1785.412051570318</v>
+        <v>1785.412051570317</v>
       </c>
       <c r="U39" t="n">
-        <v>1588.143959212511</v>
+        <v>1588.14395921251</v>
       </c>
       <c r="V39" t="n">
-        <v>1374.432432205545</v>
+        <v>1374.432432205544</v>
       </c>
       <c r="W39" t="n">
         <v>1161.199263941873</v>
       </c>
       <c r="X39" t="n">
-        <v>984.8732820807659</v>
+        <v>984.8732820807658</v>
       </c>
       <c r="Y39" t="n">
-        <v>825.4713224445959</v>
+        <v>825.4713224445958</v>
       </c>
     </row>
     <row r="40">
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>417.5205446787849</v>
+        <v>408.6656384258544</v>
       </c>
       <c r="C40" t="n">
-        <v>246.4271722405014</v>
+        <v>237.5722659875709</v>
       </c>
       <c r="D40" t="n">
-        <v>246.4271722405014</v>
+        <v>206.6827321119568</v>
       </c>
       <c r="E40" t="n">
-        <v>246.4271722405014</v>
+        <v>206.6827321119568</v>
       </c>
       <c r="F40" t="n">
         <v>206.6827321119568</v>
@@ -7335,22 +7335,22 @@
         <v>127.6105279304289</v>
       </c>
       <c r="K40" t="n">
-        <v>219.6034981877564</v>
+        <v>402.1925459421785</v>
       </c>
       <c r="L40" t="n">
-        <v>633.0972772623925</v>
+        <v>815.6863250168146</v>
       </c>
       <c r="M40" t="n">
-        <v>1084.307495648273</v>
+        <v>921.9301938884097</v>
       </c>
       <c r="N40" t="n">
-        <v>1523.241722224319</v>
+        <v>1360.864420464456</v>
       </c>
       <c r="O40" t="n">
-        <v>1928.829063741821</v>
+        <v>1766.451761981957</v>
       </c>
       <c r="P40" t="n">
-        <v>1998.558115949588</v>
+        <v>1872.284155743751</v>
       </c>
       <c r="Q40" t="n">
         <v>2024.321847303436</v>
@@ -7365,19 +7365,19 @@
         <v>1621.255221375985</v>
       </c>
       <c r="U40" t="n">
-        <v>1621.255221375985</v>
+        <v>1338.514570062576</v>
       </c>
       <c r="V40" t="n">
-        <v>1347.369476315507</v>
+        <v>1338.514570062576</v>
       </c>
       <c r="W40" t="n">
-        <v>1068.299811824381</v>
+        <v>1059.444905571451</v>
       </c>
       <c r="X40" t="n">
-        <v>829.9559496840645</v>
+        <v>821.101043431134</v>
       </c>
       <c r="Y40" t="n">
-        <v>605.2202510728292</v>
+        <v>596.3653448198987</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1285.981655162214</v>
+        <v>1261.453315637854</v>
       </c>
       <c r="C41" t="n">
-        <v>875.8570644754845</v>
+        <v>851.3287249511243</v>
       </c>
       <c r="D41" t="n">
-        <v>875.8570644754845</v>
+        <v>446.8647950441849</v>
       </c>
       <c r="E41" t="n">
-        <v>461.5168489923812</v>
+        <v>446.8647950441849</v>
       </c>
       <c r="F41" t="n">
-        <v>40.48643694606873</v>
+        <v>446.8647950441849</v>
       </c>
       <c r="G41" t="n">
         <v>40.48643694606873</v>
@@ -7408,28 +7408,28 @@
         <v>40.48643694606873</v>
       </c>
       <c r="I41" t="n">
-        <v>44.64574590746554</v>
+        <v>44.64574590746543</v>
       </c>
       <c r="J41" t="n">
-        <v>167.5334271492899</v>
+        <v>167.5334271492898</v>
       </c>
       <c r="K41" t="n">
-        <v>372.2593058752965</v>
+        <v>372.2593058752964</v>
       </c>
       <c r="L41" t="n">
-        <v>641.185075087908</v>
+        <v>641.1850750879075</v>
       </c>
       <c r="M41" t="n">
-        <v>953.2429319501309</v>
+        <v>953.2429319501305</v>
       </c>
       <c r="N41" t="n">
         <v>1272.218803576257</v>
       </c>
       <c r="O41" t="n">
-        <v>1568.017893256778</v>
+        <v>1568.017893256777</v>
       </c>
       <c r="P41" t="n">
-        <v>1806.502667397419</v>
+        <v>1806.502667397418</v>
       </c>
       <c r="Q41" t="n">
         <v>1966.084838463273</v>
@@ -7438,25 +7438,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S41" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="T41" t="n">
-        <v>1812.402164354919</v>
+        <v>1730.670028080286</v>
       </c>
       <c r="U41" t="n">
-        <v>1696.202834826704</v>
+        <v>1473.79753042052</v>
       </c>
       <c r="V41" t="n">
-        <v>1696.202834826704</v>
+        <v>1473.79753042052</v>
       </c>
       <c r="W41" t="n">
-        <v>1696.202834826704</v>
+        <v>1473.79753042052</v>
       </c>
       <c r="X41" t="n">
-        <v>1696.202834826704</v>
+        <v>1261.453315637854</v>
       </c>
       <c r="Y41" t="n">
-        <v>1696.202834826704</v>
+        <v>1261.453315637854</v>
       </c>
     </row>
     <row r="42">
@@ -7517,7 +7517,7 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S42" t="n">
-        <v>1939.686028373151</v>
+        <v>1939.686028373152</v>
       </c>
       <c r="T42" t="n">
         <v>1785.412051570317</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1087.694781664777</v>
+        <v>623.3334267999169</v>
       </c>
       <c r="C43" t="n">
-        <v>916.6014092264938</v>
+        <v>452.2400543616334</v>
       </c>
       <c r="D43" t="n">
-        <v>757.1067645494038</v>
+        <v>452.2400543616334</v>
       </c>
       <c r="E43" t="n">
-        <v>596.1959494177233</v>
+        <v>291.3292392299529</v>
       </c>
       <c r="F43" t="n">
-        <v>431.5648235283147</v>
+        <v>291.3292392299529</v>
       </c>
       <c r="G43" t="n">
-        <v>265.3685283624266</v>
+        <v>125.1329440640648</v>
       </c>
       <c r="H43" t="n">
         <v>125.1329440640648</v>
@@ -7572,49 +7572,49 @@
         <v>127.6105279304289</v>
       </c>
       <c r="K43" t="n">
-        <v>219.6034981877564</v>
+        <v>402.1925459421785</v>
       </c>
       <c r="L43" t="n">
-        <v>633.0972772623925</v>
+        <v>815.6863250168146</v>
       </c>
       <c r="M43" t="n">
-        <v>1084.307495648273</v>
+        <v>921.9301938884097</v>
       </c>
       <c r="N43" t="n">
-        <v>1523.241722224319</v>
+        <v>1360.864420464456</v>
       </c>
       <c r="O43" t="n">
-        <v>1928.829063741821</v>
+        <v>1766.451761981957</v>
       </c>
       <c r="P43" t="n">
-        <v>1998.558115949588</v>
+        <v>1872.284155743751</v>
       </c>
       <c r="Q43" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="R43" t="n">
-        <v>1986.445114104106</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S43" t="n">
-        <v>1818.423362863342</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="T43" t="n">
-        <v>1583.378488176655</v>
+        <v>1789.276972616749</v>
       </c>
       <c r="U43" t="n">
-        <v>1300.637836863246</v>
+        <v>1506.536321303341</v>
       </c>
       <c r="V43" t="n">
-        <v>1300.637836863246</v>
+        <v>1232.650576242863</v>
       </c>
       <c r="W43" t="n">
-        <v>1300.637836863246</v>
+        <v>1086.412987551469</v>
       </c>
       <c r="X43" t="n">
-        <v>1300.637836863246</v>
+        <v>848.0691254111522</v>
       </c>
       <c r="Y43" t="n">
-        <v>1275.394488058822</v>
+        <v>623.3334267999169</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1280.320994382424</v>
+        <v>1145.308487030664</v>
       </c>
       <c r="C44" t="n">
-        <v>1280.320994382424</v>
+        <v>1145.308487030664</v>
       </c>
       <c r="D44" t="n">
-        <v>875.8570644754845</v>
+        <v>1145.308487030664</v>
       </c>
       <c r="E44" t="n">
-        <v>461.5168489923812</v>
+        <v>730.9682715475608</v>
       </c>
       <c r="F44" t="n">
-        <v>40.48643694606873</v>
+        <v>309.9378595012483</v>
       </c>
       <c r="G44" t="n">
-        <v>40.48643694606873</v>
+        <v>309.9378595012483</v>
       </c>
       <c r="H44" t="n">
         <v>40.48643694606873</v>
       </c>
       <c r="I44" t="n">
-        <v>44.64574590746497</v>
+        <v>44.64574590746565</v>
       </c>
       <c r="J44" t="n">
-        <v>167.5334271492893</v>
+        <v>167.5334271492901</v>
       </c>
       <c r="K44" t="n">
-        <v>372.2593058752961</v>
+        <v>372.2593058752967</v>
       </c>
       <c r="L44" t="n">
-        <v>641.1850750879075</v>
+        <v>641.185075087908</v>
       </c>
       <c r="M44" t="n">
-        <v>953.2429319501307</v>
+        <v>953.2429319501312</v>
       </c>
       <c r="N44" t="n">
         <v>1272.218803576257</v>
@@ -7678,22 +7678,22 @@
         <v>2024.321847303436</v>
       </c>
       <c r="T44" t="n">
-        <v>2024.321847303436</v>
+        <v>1812.402164354919</v>
       </c>
       <c r="U44" t="n">
-        <v>2024.321847303436</v>
+        <v>1555.529666695154</v>
       </c>
       <c r="V44" t="n">
-        <v>2024.321847303436</v>
+        <v>1555.529666695154</v>
       </c>
       <c r="W44" t="n">
-        <v>2024.321847303436</v>
+        <v>1555.529666695154</v>
       </c>
       <c r="X44" t="n">
-        <v>1623.678449472389</v>
+        <v>1555.529666695154</v>
       </c>
       <c r="Y44" t="n">
-        <v>1280.320994382424</v>
+        <v>1555.529666695154</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>40.48643694606873</v>
       </c>
       <c r="I45" t="n">
-        <v>43.01083102505508</v>
+        <v>62.57863487475248</v>
       </c>
       <c r="J45" t="n">
-        <v>352.2490680648407</v>
+        <v>371.8168719145381</v>
       </c>
       <c r="K45" t="n">
-        <v>495.9710605961322</v>
+        <v>664.3550098615119</v>
       </c>
       <c r="L45" t="n">
-        <v>707.9836451177896</v>
+        <v>876.3675943831693</v>
       </c>
       <c r="M45" t="n">
-        <v>963.2318628767578</v>
+        <v>1131.615812142137</v>
       </c>
       <c r="N45" t="n">
-        <v>1231.071242635907</v>
+        <v>1399.455191901287</v>
       </c>
       <c r="O45" t="n">
-        <v>1467.092931389887</v>
+        <v>1635.476880655266</v>
       </c>
       <c r="P45" t="n">
-        <v>1648.69125282607</v>
+        <v>1817.075202091449</v>
       </c>
       <c r="Q45" t="n">
-        <v>2006.221312702521</v>
+        <v>1918.25159622554</v>
       </c>
       <c r="R45" t="n">
         <v>2024.321847303436</v>
@@ -7782,46 +7782,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>953.5809117517372</v>
+        <v>947.4591973664158</v>
       </c>
       <c r="C46" t="n">
-        <v>831.9549021084979</v>
+        <v>776.3658249281323</v>
       </c>
       <c r="D46" t="n">
-        <v>672.4602574314079</v>
+        <v>616.8711802510422</v>
       </c>
       <c r="E46" t="n">
-        <v>511.5494422997273</v>
+        <v>455.9603651193617</v>
       </c>
       <c r="F46" t="n">
-        <v>346.9183164103185</v>
+        <v>291.3292392299529</v>
       </c>
       <c r="G46" t="n">
-        <v>180.7220212444305</v>
+        <v>125.1329440640648</v>
       </c>
       <c r="H46" t="n">
-        <v>40.48643694606873</v>
+        <v>125.1329440640648</v>
       </c>
       <c r="I46" t="n">
         <v>40.48643694606873</v>
       </c>
       <c r="J46" t="n">
-        <v>62.60916429909253</v>
+        <v>127.6105279304289</v>
       </c>
       <c r="K46" t="n">
-        <v>337.1911823108422</v>
+        <v>402.1925459421786</v>
       </c>
       <c r="L46" t="n">
-        <v>750.6849613854783</v>
+        <v>501.7072137817917</v>
       </c>
       <c r="M46" t="n">
-        <v>856.9288302570735</v>
+        <v>952.9174321676724</v>
       </c>
       <c r="N46" t="n">
-        <v>1136.070278545365</v>
+        <v>1391.851658743719</v>
       </c>
       <c r="O46" t="n">
-        <v>1541.657620062866</v>
+        <v>1797.43900026122</v>
       </c>
       <c r="P46" t="n">
         <v>1872.284155743751</v>
@@ -7836,22 +7836,22 @@
         <v>2024.321847303436</v>
       </c>
       <c r="T46" t="n">
-        <v>1789.276972616749</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="U46" t="n">
-        <v>1506.536321303341</v>
+        <v>1741.581195990028</v>
       </c>
       <c r="V46" t="n">
-        <v>1232.650576242863</v>
+        <v>1467.69545092955</v>
       </c>
       <c r="W46" t="n">
-        <v>953.5809117517372</v>
+        <v>1188.625786438424</v>
       </c>
       <c r="X46" t="n">
-        <v>953.5809117517372</v>
+        <v>950.2819242981077</v>
       </c>
       <c r="Y46" t="n">
-        <v>953.5809117517372</v>
+        <v>947.4591973664158</v>
       </c>
     </row>
   </sheetData>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>99.84963007787573</v>
+        <v>10.99133060617824</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>306.9114698022931</v>
+        <v>175.7351620617294</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>301.5998851146092</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>300.2520601714372</v>
       </c>
       <c r="O13" t="n">
-        <v>120.2291933154172</v>
+        <v>314.6575970790323</v>
       </c>
       <c r="P13" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9005,16 +9005,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>99.84963007787707</v>
       </c>
       <c r="L15" t="n">
-        <v>213.5552811888697</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>132.4240498734845</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>306.9114698022931</v>
+        <v>175.7351620617294</v>
       </c>
       <c r="M16" t="n">
-        <v>120.2291933154174</v>
+        <v>301.5998851146093</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>300.2520601714373</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>314.6575970790324</v>
       </c>
       <c r="P16" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9239,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>4.999121658943714</v>
+        <v>4.999121658943693</v>
       </c>
       <c r="J18" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>114.6159668529704</v>
       </c>
       <c r="L18" t="n">
-        <v>114.6159668529699</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>208.3638319047618</v>
       </c>
       <c r="L19" t="n">
-        <v>306.9114698022931</v>
+        <v>306.9114698022934</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>301.5998851146092</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>275.3695176051435</v>
       </c>
       <c r="O19" t="n">
-        <v>120.2291933154172</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>4.999121658943722</v>
+        <v>4.999121658943693</v>
       </c>
       <c r="J21" t="n">
-        <v>54.85342199792759</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>305.8922458395205</v>
+        <v>25.75766738127174</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>125.5407780031015</v>
+        <v>175.7351620617293</v>
       </c>
       <c r="M22" t="n">
-        <v>301.5998851146089</v>
+        <v>301.5998851146092</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>300.2520601714371</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>314.6575970790323</v>
       </c>
       <c r="P22" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9716,10 +9716,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>360.9067319962717</v>
+        <v>239.1776382754176</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>124.4006072636239</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9795,13 +9795,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M25" t="n">
         <v>348.4508580952379</v>
@@ -9813,10 +9813,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P25" t="n">
-        <v>213.531612990382</v>
+        <v>89.58839339659437</v>
       </c>
       <c r="Q25" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9956,7 +9956,7 @@
         <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>150.3193388037194</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>150.3193388037195</v>
       </c>
       <c r="R27" t="n">
         <v>88.85829947169823</v>
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>65.65794306195595</v>
+        <v>46.95698514945342</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -10041,7 +10041,7 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M28" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>335.3881832803894</v>
@@ -10050,10 +10050,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q28" t="n">
-        <v>23.93045033463851</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
         <v>246.129700984478</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>258.9430967094554</v>
+        <v>150.3193388037198</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -10287,10 +10287,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P31" t="n">
-        <v>89.58839339659437</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>23.93045033463874</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>144.1660656976617</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>360.9067319962717</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>150.3193388037195</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -10524,10 +10524,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P34" t="n">
-        <v>89.58839339659438</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>23.93045033463851</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>150.3193388037194</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>239.1776382754176</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10755,13 +10755,13 @@
         <v>348.4508580952379</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O37" t="n">
-        <v>78.12986811408996</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>263.5328115890082</v>
+        <v>6.274496422708509</v>
       </c>
       <c r="Q37" t="n">
         <v>127.5494547533709</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>101.1907137812969</v>
+        <v>150.3193388037194</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>403.8820839126366</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10983,13 +10983,13 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K40" t="n">
-        <v>23.93045033463838</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L40" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M40" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>335.3881832803894</v>
@@ -10998,10 +10998,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>36.46802177174396</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11220,13 +11220,13 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K43" t="n">
-        <v>23.93045033463839</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L43" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M43" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>335.3881832803894</v>
@@ -11235,10 +11235,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>36.46802177174396</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>150.3193388037195</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>258.9430967094554</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,25 +11454,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K46" t="n">
         <v>208.3638319047618</v>
       </c>
       <c r="L46" t="n">
-        <v>317.1506174091142</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N46" t="n">
-        <v>173.9813365250811</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O46" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P46" t="n">
-        <v>263.5328115890082</v>
+        <v>5.167781085620177</v>
       </c>
       <c r="Q46" t="n">
         <v>127.5494547533709</v>
@@ -23260,25 +23260,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>25.92081311604647</v>
       </c>
       <c r="D11" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>85.3207766505206</v>
+        <v>30.09428166445616</v>
       </c>
       <c r="F11" t="n">
-        <v>36.71757626203356</v>
+        <v>36.71757626203322</v>
       </c>
       <c r="G11" t="n">
-        <v>22.6218347707715</v>
+        <v>402.7243664345872</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>288.170675930369</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>11.59718071435202</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>152.0956021940798</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -23345,10 +23345,10 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E12" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>96.15632838227046</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G12" t="n">
         <v>104.8947215166441</v>
@@ -23387,13 +23387,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>87.86208203003511</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>19.71185318050874</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>89.32796706574099</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>45.76311615258538</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>169.5449896719115</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>233.4798324570193</v>
@@ -23475,13 +23475,13 @@
         <v>279.9232712664514</v>
       </c>
       <c r="V13" t="n">
-        <v>257.6536293323828</v>
+        <v>205.0360525528956</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>26.01643620402837</v>
       </c>
       <c r="C14" t="n">
-        <v>69.55012738775889</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>20.3167589440543</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>36.71757626203356</v>
+        <v>36.71757626203311</v>
       </c>
       <c r="G14" t="n">
         <v>402.7243664345872</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>288.170675930369</v>
       </c>
       <c r="I14" t="n">
-        <v>11.59718071435206</v>
+        <v>11.59718071435202</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23554,13 +23554,13 @@
         <v>254.3365560365643</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>101.7978174582267</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>16.53443218892079</v>
       </c>
       <c r="Y14" t="n">
         <v>396.9273063213908</v>
@@ -23573,25 +23573,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>23.63687379750078</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>89.6953197398106</v>
       </c>
       <c r="G15" t="n">
         <v>104.8947215166441</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>60.13566595377411</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23624,10 +23624,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>87.86208203003511</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>153.6150006628197</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>146.8364545700797</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4675424422307</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>89.32796706574099</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>45.76311615258539</v>
+        <v>45.76311615258537</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>169.5449896719115</v>
       </c>
       <c r="T16" t="n">
-        <v>233.4798324570193</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9232712664514</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>94.16761261985133</v>
       </c>
       <c r="X16" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -23734,22 +23734,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>82.64638179709243</v>
       </c>
       <c r="D17" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>296.9151268882003</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>36.71757626203356</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>22.6218347707715</v>
+        <v>402.7243664345872</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>288.170675930369</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>90.25294823083186</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>211.5943502376797</v>
       </c>
       <c r="U17" t="n">
         <v>254.3365560365643</v>
@@ -23794,13 +23794,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>16.5344321889209</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>16.82477465757472</v>
       </c>
     </row>
     <row r="18">
@@ -23810,25 +23810,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>104.8947215166441</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>60.1356659537741</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>87.86208203003511</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23870,7 +23870,7 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>135.4400393833104</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -23879,7 +23879,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>108.9194808525094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>136.2464058233907</v>
+        <v>164.7181507608077</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.4675424422307</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>89.32796706574099</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>45.76311615258536</v>
       </c>
       <c r="S19" t="n">
         <v>169.5449896719115</v>
       </c>
       <c r="T19" t="n">
-        <v>233.4798324570193</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>48.4326245121068</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>222.4883416251229</v>
@@ -23977,19 +23977,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>30.0942816644565</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>36.71757626203356</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>244.0113793863585</v>
+        <v>402.7243664345872</v>
       </c>
       <c r="H20" t="n">
         <v>288.170675930369</v>
       </c>
       <c r="I20" t="n">
-        <v>11.59718071435206</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24025,19 +24025,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.3365560365643</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>341.3439467915465</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>16.82477465757472</v>
       </c>
     </row>
     <row r="21">
@@ -24059,13 +24059,13 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G21" t="n">
         <v>104.8947215166441</v>
       </c>
       <c r="H21" t="n">
-        <v>60.13566595377411</v>
+        <v>60.1356659537741</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24098,13 +24098,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>87.86208203003511</v>
+        <v>87.8620820300351</v>
       </c>
       <c r="T21" t="n">
-        <v>48.00048409961085</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>195.3098363030213</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24113,7 +24113,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>135.4400393833102</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
         <v>159.3017069803637</v>
@@ -24141,13 +24141,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>164.7181507608077</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.4675424422307</v>
       </c>
       <c r="I22" t="n">
-        <v>89.32796706574101</v>
+        <v>89.32796706574099</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>45.76311615258539</v>
+        <v>45.76311615258536</v>
       </c>
       <c r="S22" t="n">
         <v>169.5449896719115</v>
       </c>
       <c r="T22" t="n">
-        <v>233.4798324570193</v>
+        <v>7.896879134803953</v>
       </c>
       <c r="U22" t="n">
         <v>279.9232712664514</v>
       </c>
       <c r="V22" t="n">
-        <v>43.87756199351165</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24208,13 +24208,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
         <v>416.8201079258493</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>283.9738944557603</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24262,19 +24262,19 @@
         <v>209.8004861190321</v>
       </c>
       <c r="U23" t="n">
-        <v>254.3037726831681</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>99.49402622807364</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>51.88427330073694</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>113.5298827261231</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>157.8996982303191</v>
@@ -24375,7 +24375,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>53.19402215919686</v>
       </c>
       <c r="G25" t="n">
         <v>164.5343322142292</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>37.4979658673368</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>246.96368253219</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
         <v>410.1968133282722</v>
@@ -24457,7 +24457,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>402.3145745171349</v>
+        <v>248.0300890324912</v>
       </c>
       <c r="H26" t="n">
         <v>283.9738944557603</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U26" t="n">
-        <v>254.3037726831681</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>50.56962163616257</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>83.80004204681615</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>37.4979658673368</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>232.6944259398202</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>34.77120406413661</v>
       </c>
     </row>
     <row r="29">
@@ -24685,19 +24685,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>75.58146825590518</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>402.3145745171349</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>283.9738944557603</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24739,7 +24739,7 @@
         <v>254.3037726831681</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>297.5930124095419</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>105.3250571286094</v>
+        <v>89.26835302399358</v>
       </c>
       <c r="H31" t="n">
         <v>138.8332284553781</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>37.4979658673368</v>
       </c>
       <c r="S31" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24919,22 +24919,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>67.69922944476775</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H32" t="n">
-        <v>283.9738944557603</v>
+        <v>214.7776924314131</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>209.8004861190321</v>
       </c>
       <c r="U32" t="n">
-        <v>254.3037726831681</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
@@ -24985,7 +24985,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>69.63429277540016</v>
       </c>
       <c r="G34" t="n">
-        <v>63.59926054248241</v>
+        <v>164.5343322142292</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>83.80004204681615</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>37.4979658673368</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>232.6944259398202</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>77.47675216517</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H35" t="n">
-        <v>283.9738944557603</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>254.3037726831681</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>8.391345493544691</v>
       </c>
       <c r="W35" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>396.9273063213908</v>
@@ -25326,10 +25326,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5343322142292</v>
+        <v>71.18381035911472</v>
       </c>
       <c r="H37" t="n">
-        <v>82.98067246760053</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I37" t="n">
         <v>83.80004204681615</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>37.4979658673368</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>75.58146825590501</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25402,7 +25402,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
         <v>402.3145745171349</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>209.8004861190321</v>
@@ -25459,7 +25459,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>136.6034815633333</v>
       </c>
     </row>
     <row r="39">
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>127.3190596934612</v>
       </c>
       <c r="E40" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>123.6378189032555</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25605,10 +25605,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9132448002744</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>402.3145745171349</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>283.9738944557603</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>139.266436450235</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -25693,7 +25693,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>186.4161912178978</v>
       </c>
       <c r="Y41" t="n">
         <v>396.9273063213908</v>
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>37.4979658673368</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>131.5037550417346</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>197.4974263087428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>402.3145745171349</v>
       </c>
       <c r="H44" t="n">
-        <v>283.9738944557603</v>
+        <v>17.2169861261325</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,10 +25918,10 @@
         <v>80.91481491188677</v>
       </c>
       <c r="T44" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.3037726831681</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -25930,10 +25930,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>57.00342578232545</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -26025,7 +26025,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>48.97268916709378</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I46" t="n">
-        <v>83.80004204681615</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>166.3415337283568</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>232.6944259398202</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>219.6938419627479</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>416148.5225011035</v>
+        <v>416148.5225011037</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>416148.5225011035</v>
+        <v>416148.5225011039</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>416148.5225011035</v>
+        <v>416148.5225011038</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>416148.5225011035</v>
+        <v>416148.5225011038</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>511601.5690129902</v>
+        <v>511601.56901299</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>511601.5690129902</v>
+        <v>511601.5690129903</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>511601.5690129902</v>
+        <v>511601.56901299</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>511601.5690129901</v>
+        <v>511601.56901299</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>511601.5690129903</v>
+        <v>511601.5690129902</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>511601.5690129902</v>
+        <v>511601.56901299</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>511601.56901299</v>
+        <v>511601.5690129902</v>
       </c>
     </row>
   </sheetData>
@@ -26316,28 +26316,28 @@
         <v>50927.38639467968</v>
       </c>
       <c r="C2" t="n">
-        <v>50927.38639467969</v>
+        <v>50927.38639467968</v>
       </c>
       <c r="D2" t="n">
         <v>50927.38639467968</v>
       </c>
       <c r="E2" t="n">
+        <v>172538.1645459919</v>
+      </c>
+      <c r="F2" t="n">
         <v>172538.164545992</v>
-      </c>
-      <c r="F2" t="n">
-        <v>172538.1645459919</v>
       </c>
       <c r="G2" t="n">
         <v>172538.164545992</v>
       </c>
       <c r="H2" t="n">
-        <v>172538.1645459919</v>
+        <v>172538.164545992</v>
       </c>
       <c r="I2" t="n">
         <v>211565.4642249999</v>
       </c>
       <c r="J2" t="n">
-        <v>211565.4642249999</v>
+        <v>211565.4642249998</v>
       </c>
       <c r="K2" t="n">
         <v>211565.4642249999</v>
@@ -26352,7 +26352,7 @@
         <v>211565.4642249999</v>
       </c>
       <c r="O2" t="n">
-        <v>211565.4642249999</v>
+        <v>211565.4642249998</v>
       </c>
       <c r="P2" t="n">
         <v>211565.464225</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>496523.0093668745</v>
+        <v>496523.0093668747</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>8.522183634340765e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>110232.2031141149</v>
+        <v>110232.2031141145</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>94723.07130074954</v>
+        <v>94723.07130074964</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,13 +26426,13 @@
         <v>31526.47729194457</v>
       </c>
       <c r="E4" t="n">
-        <v>13889.07838003458</v>
+        <v>13889.07838003459</v>
       </c>
       <c r="F4" t="n">
+        <v>13889.07838003461</v>
+      </c>
+      <c r="G4" t="n">
         <v>13889.07838003459</v>
-      </c>
-      <c r="G4" t="n">
-        <v>13889.07838003458</v>
       </c>
       <c r="H4" t="n">
         <v>13889.07838003458</v>
@@ -26441,22 +26441,22 @@
         <v>18387.66759391807</v>
       </c>
       <c r="J4" t="n">
-        <v>18387.66759391807</v>
+        <v>18387.66759391808</v>
       </c>
       <c r="K4" t="n">
-        <v>18387.66759391807</v>
+        <v>18387.66759391808</v>
       </c>
       <c r="L4" t="n">
-        <v>18387.66759391807</v>
+        <v>18387.66759391808</v>
       </c>
       <c r="M4" t="n">
         <v>18387.66759391808</v>
       </c>
       <c r="N4" t="n">
-        <v>18387.66759391807</v>
+        <v>18387.66759391808</v>
       </c>
       <c r="O4" t="n">
-        <v>18387.66759391807</v>
+        <v>18387.66759391808</v>
       </c>
       <c r="P4" t="n">
         <v>18387.66759391808</v>
@@ -26478,16 +26478,16 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>33503.6654577247</v>
+        <v>33503.66545772472</v>
       </c>
       <c r="F5" t="n">
-        <v>33503.66545772469</v>
+        <v>33503.66545772472</v>
       </c>
       <c r="G5" t="n">
-        <v>33503.66545772469</v>
+        <v>33503.66545772472</v>
       </c>
       <c r="H5" t="n">
-        <v>33503.66545772469</v>
+        <v>33503.66545772472</v>
       </c>
       <c r="I5" t="n">
         <v>43385.32273194158</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-14226.69089726488</v>
+        <v>-15613.00346380526</v>
       </c>
       <c r="C6" t="n">
-        <v>-14226.69089726487</v>
+        <v>-15613.00346380526</v>
       </c>
       <c r="D6" t="n">
-        <v>-14226.69089726488</v>
+        <v>-15613.00346380526</v>
       </c>
       <c r="E6" t="n">
-        <v>-371377.5886586418</v>
+        <v>-372184.8022816048</v>
       </c>
       <c r="F6" t="n">
-        <v>125145.4207082326</v>
+        <v>124338.2070852699</v>
       </c>
       <c r="G6" t="n">
-        <v>125145.4207082327</v>
+        <v>124338.20708527</v>
       </c>
       <c r="H6" t="n">
-        <v>125145.4207082327</v>
+        <v>124338.20708527</v>
       </c>
       <c r="I6" t="n">
-        <v>39560.27078502532</v>
+        <v>38938.90144624878</v>
       </c>
       <c r="J6" t="n">
-        <v>149792.4738991403</v>
+        <v>149171.1045603632</v>
       </c>
       <c r="K6" t="n">
-        <v>149792.4738991402</v>
+        <v>149171.1045603633</v>
       </c>
       <c r="L6" t="n">
-        <v>149792.4738991402</v>
+        <v>149171.1045603633</v>
       </c>
       <c r="M6" t="n">
-        <v>55069.4025983907</v>
+        <v>54448.0332596137</v>
       </c>
       <c r="N6" t="n">
-        <v>149792.4738991402</v>
+        <v>149171.1045603633</v>
       </c>
       <c r="O6" t="n">
-        <v>149792.4738991403</v>
+        <v>149171.1045603632</v>
       </c>
       <c r="P6" t="n">
-        <v>149792.4738991404</v>
+        <v>149171.1045603634</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>476.7629143378301</v>
+        <v>476.7629143378302</v>
       </c>
       <c r="F3" t="n">
-        <v>476.76291433783</v>
+        <v>476.7629143378302</v>
       </c>
       <c r="G3" t="n">
-        <v>476.76291433783</v>
+        <v>476.7629143378303</v>
       </c>
       <c r="H3" t="n">
-        <v>476.76291433783</v>
+        <v>476.7629143378304</v>
       </c>
       <c r="I3" t="n">
         <v>578.6986538040985</v>
@@ -26798,16 +26798,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>380.1025316638157</v>
+        <v>380.1025316638161</v>
       </c>
       <c r="F4" t="n">
-        <v>380.1025316638157</v>
+        <v>380.1025316638162</v>
       </c>
       <c r="G4" t="n">
-        <v>380.1025316638157</v>
+        <v>380.1025316638161</v>
       </c>
       <c r="H4" t="n">
-        <v>380.1025316638157</v>
+        <v>380.1025316638161</v>
       </c>
       <c r="I4" t="n">
         <v>506.0804618258591</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>476.7629143378301</v>
+        <v>476.7629143378302</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.078150109664906e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>101.9357394662686</v>
+        <v>101.9357394662682</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>380.1025316638157</v>
+        <v>380.1025316638161</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>125.9779301620433</v>
+        <v>125.977930162043</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>380.1025316638157</v>
+        <v>380.1025316638161</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>380.1025316638157</v>
+        <v>380.1025316638161</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.916634831508863</v>
+        <v>1.916634831508864</v>
       </c>
       <c r="H11" t="n">
-        <v>19.62873646819015</v>
+        <v>19.62873646819016</v>
       </c>
       <c r="I11" t="n">
-        <v>73.89106434174552</v>
+        <v>73.89106434174555</v>
       </c>
       <c r="J11" t="n">
-        <v>162.6719855307755</v>
+        <v>162.6719855307756</v>
       </c>
       <c r="K11" t="n">
         <v>243.8031379485458</v>
       </c>
       <c r="L11" t="n">
-        <v>302.4593511733352</v>
+        <v>302.4593511733353</v>
       </c>
       <c r="M11" t="n">
-        <v>336.5443058581809</v>
+        <v>336.544305858181</v>
       </c>
       <c r="N11" t="n">
-        <v>341.9899445732055</v>
+        <v>341.9899445732056</v>
       </c>
       <c r="O11" t="n">
-        <v>322.9314069673892</v>
+        <v>322.9314069673893</v>
       </c>
       <c r="P11" t="n">
-        <v>275.6144845645141</v>
+        <v>275.6144845645142</v>
       </c>
       <c r="Q11" t="n">
-        <v>206.9749996611029</v>
+        <v>206.974999661103</v>
       </c>
       <c r="R11" t="n">
-        <v>120.3958127347687</v>
+        <v>120.3958127347688</v>
       </c>
       <c r="S11" t="n">
-        <v>43.67531622300826</v>
+        <v>43.67531622300828</v>
       </c>
       <c r="T11" t="n">
-        <v>8.390068974930053</v>
+        <v>8.390068974930056</v>
       </c>
       <c r="U11" t="n">
-        <v>0.153330786520709</v>
+        <v>0.1533307865207091</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,46 +31834,46 @@
         <v>1.025490042160616</v>
       </c>
       <c r="H12" t="n">
-        <v>9.904074880867</v>
+        <v>9.904074880867004</v>
       </c>
       <c r="I12" t="n">
-        <v>35.30744224105629</v>
+        <v>35.3074422410563</v>
       </c>
       <c r="J12" t="n">
-        <v>96.88632016746415</v>
+        <v>96.88632016746418</v>
       </c>
       <c r="K12" t="n">
         <v>165.5941529922254</v>
       </c>
       <c r="L12" t="n">
-        <v>222.6617742857951</v>
+        <v>222.6617742857952</v>
       </c>
       <c r="M12" t="n">
-        <v>259.8357883141173</v>
+        <v>259.8357883141175</v>
       </c>
       <c r="N12" t="n">
-        <v>266.7128684652735</v>
+        <v>266.7128684652736</v>
       </c>
       <c r="O12" t="n">
         <v>243.9901680573988</v>
       </c>
       <c r="P12" t="n">
-        <v>195.8236204192495</v>
+        <v>195.8236204192496</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.902904329134</v>
+        <v>130.9029043291341</v>
       </c>
       <c r="R12" t="n">
-        <v>63.67033788081439</v>
+        <v>63.67033788081441</v>
       </c>
       <c r="S12" t="n">
-        <v>19.04802775679914</v>
+        <v>19.04802775679915</v>
       </c>
       <c r="T12" t="n">
-        <v>4.133444512042129</v>
+        <v>4.13344451204213</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06746645014214579</v>
+        <v>0.06746645014214582</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,28 +31910,28 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8597364029042837</v>
+        <v>0.8597364029042839</v>
       </c>
       <c r="H13" t="n">
-        <v>7.643838200367182</v>
+        <v>7.643838200367185</v>
       </c>
       <c r="I13" t="n">
-        <v>25.8546183709761</v>
+        <v>25.85461837097611</v>
       </c>
       <c r="J13" t="n">
-        <v>60.78336368533285</v>
+        <v>60.78336368533287</v>
       </c>
       <c r="K13" t="n">
-        <v>99.88573844651584</v>
+        <v>99.88573844651587</v>
       </c>
       <c r="L13" t="n">
         <v>127.8193557554242</v>
       </c>
       <c r="M13" t="n">
-        <v>134.7675890479869</v>
+        <v>134.767589047987</v>
       </c>
       <c r="N13" t="n">
-        <v>131.5631170007983</v>
+        <v>131.5631170007984</v>
       </c>
       <c r="O13" t="n">
         <v>121.5198326577801</v>
@@ -31940,19 +31940,19 @@
         <v>103.9812100385326</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.99120006501234</v>
+        <v>71.99120006501236</v>
       </c>
       <c r="R13" t="n">
-        <v>38.65687498876896</v>
+        <v>38.65687498876898</v>
       </c>
       <c r="S13" t="n">
-        <v>14.98286076697737</v>
+        <v>14.98286076697738</v>
       </c>
       <c r="T13" t="n">
-        <v>3.673419176045575</v>
+        <v>3.673419176045576</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04689471288568825</v>
+        <v>0.04689471288568827</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.916634831508863</v>
+        <v>1.916634831508864</v>
       </c>
       <c r="H14" t="n">
-        <v>19.62873646819014</v>
+        <v>19.62873646819016</v>
       </c>
       <c r="I14" t="n">
-        <v>73.8910643417455</v>
+        <v>73.89106434174555</v>
       </c>
       <c r="J14" t="n">
-        <v>162.6719855307755</v>
+        <v>162.6719855307756</v>
       </c>
       <c r="K14" t="n">
-        <v>243.8031379485457</v>
+        <v>243.8031379485458</v>
       </c>
       <c r="L14" t="n">
-        <v>302.4593511733351</v>
+        <v>302.4593511733353</v>
       </c>
       <c r="M14" t="n">
-        <v>336.5443058581808</v>
+        <v>336.544305858181</v>
       </c>
       <c r="N14" t="n">
-        <v>341.9899445732054</v>
+        <v>341.9899445732056</v>
       </c>
       <c r="O14" t="n">
-        <v>322.9314069673891</v>
+        <v>322.9314069673893</v>
       </c>
       <c r="P14" t="n">
-        <v>275.614484564514</v>
+        <v>275.6144845645142</v>
       </c>
       <c r="Q14" t="n">
-        <v>206.9749996611028</v>
+        <v>206.974999661103</v>
       </c>
       <c r="R14" t="n">
-        <v>120.3958127347687</v>
+        <v>120.3958127347688</v>
       </c>
       <c r="S14" t="n">
-        <v>43.67531622300825</v>
+        <v>43.67531622300828</v>
       </c>
       <c r="T14" t="n">
-        <v>8.390068974930051</v>
+        <v>8.390068974930056</v>
       </c>
       <c r="U14" t="n">
-        <v>0.153330786520709</v>
+        <v>0.1533307865207091</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.025490042160615</v>
+        <v>1.025490042160616</v>
       </c>
       <c r="H15" t="n">
-        <v>9.904074880866998</v>
+        <v>9.904074880867004</v>
       </c>
       <c r="I15" t="n">
-        <v>35.30744224105628</v>
+        <v>35.3074422410563</v>
       </c>
       <c r="J15" t="n">
-        <v>96.88632016746412</v>
+        <v>96.88632016746418</v>
       </c>
       <c r="K15" t="n">
         <v>165.5941529922254</v>
       </c>
       <c r="L15" t="n">
-        <v>222.661774285795</v>
+        <v>222.6617742857952</v>
       </c>
       <c r="M15" t="n">
-        <v>259.8357883141173</v>
+        <v>259.8357883141175</v>
       </c>
       <c r="N15" t="n">
-        <v>266.7128684652734</v>
+        <v>266.7128684652736</v>
       </c>
       <c r="O15" t="n">
-        <v>243.9901680573987</v>
+        <v>243.9901680573988</v>
       </c>
       <c r="P15" t="n">
-        <v>195.8236204192495</v>
+        <v>195.8236204192496</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.902904329134</v>
+        <v>130.9029043291341</v>
       </c>
       <c r="R15" t="n">
-        <v>63.67033788081437</v>
+        <v>63.67033788081441</v>
       </c>
       <c r="S15" t="n">
-        <v>19.04802775679914</v>
+        <v>19.04802775679915</v>
       </c>
       <c r="T15" t="n">
-        <v>4.133444512042128</v>
+        <v>4.13344451204213</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06746645014214578</v>
+        <v>0.06746645014214582</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8597364029042834</v>
+        <v>0.8597364029042839</v>
       </c>
       <c r="H16" t="n">
-        <v>7.64383820036718</v>
+        <v>7.643838200367185</v>
       </c>
       <c r="I16" t="n">
-        <v>25.85461837097609</v>
+        <v>25.85461837097611</v>
       </c>
       <c r="J16" t="n">
-        <v>60.78336368533284</v>
+        <v>60.78336368533287</v>
       </c>
       <c r="K16" t="n">
-        <v>99.88573844651582</v>
+        <v>99.88573844651587</v>
       </c>
       <c r="L16" t="n">
-        <v>127.8193557554241</v>
+        <v>127.8193557554242</v>
       </c>
       <c r="M16" t="n">
-        <v>134.7675890479869</v>
+        <v>134.767589047987</v>
       </c>
       <c r="N16" t="n">
-        <v>131.5631170007983</v>
+        <v>131.5631170007984</v>
       </c>
       <c r="O16" t="n">
-        <v>121.51983265778</v>
+        <v>121.5198326577801</v>
       </c>
       <c r="P16" t="n">
         <v>103.9812100385326</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.99120006501232</v>
+        <v>71.99120006501236</v>
       </c>
       <c r="R16" t="n">
-        <v>38.65687498876895</v>
+        <v>38.65687498876898</v>
       </c>
       <c r="S16" t="n">
-        <v>14.98286076697737</v>
+        <v>14.98286076697738</v>
       </c>
       <c r="T16" t="n">
-        <v>3.673419176045574</v>
+        <v>3.673419176045576</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04689471288568824</v>
+        <v>0.04689471288568827</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.916634831508863</v>
+        <v>1.916634831508864</v>
       </c>
       <c r="H17" t="n">
-        <v>19.62873646819015</v>
+        <v>19.62873646819016</v>
       </c>
       <c r="I17" t="n">
-        <v>73.8910643417455</v>
+        <v>73.89106434174555</v>
       </c>
       <c r="J17" t="n">
-        <v>162.6719855307755</v>
+        <v>162.6719855307756</v>
       </c>
       <c r="K17" t="n">
-        <v>243.8031379485457</v>
+        <v>243.8031379485459</v>
       </c>
       <c r="L17" t="n">
-        <v>302.4593511733352</v>
+        <v>302.4593511733353</v>
       </c>
       <c r="M17" t="n">
-        <v>336.5443058581808</v>
+        <v>336.5443058581811</v>
       </c>
       <c r="N17" t="n">
-        <v>341.9899445732054</v>
+        <v>341.9899445732057</v>
       </c>
       <c r="O17" t="n">
-        <v>322.9314069673892</v>
+        <v>322.9314069673894</v>
       </c>
       <c r="P17" t="n">
-        <v>275.6144845645141</v>
+        <v>275.6144845645143</v>
       </c>
       <c r="Q17" t="n">
-        <v>206.9749996611029</v>
+        <v>206.974999661103</v>
       </c>
       <c r="R17" t="n">
-        <v>120.3958127347687</v>
+        <v>120.3958127347688</v>
       </c>
       <c r="S17" t="n">
-        <v>43.67531622300826</v>
+        <v>43.67531622300828</v>
       </c>
       <c r="T17" t="n">
-        <v>8.390068974930053</v>
+        <v>8.390068974930056</v>
       </c>
       <c r="U17" t="n">
-        <v>0.153330786520709</v>
+        <v>0.1533307865207091</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.025490042160615</v>
+        <v>1.025490042160616</v>
       </c>
       <c r="H18" t="n">
-        <v>9.904074880866998</v>
+        <v>9.904074880867006</v>
       </c>
       <c r="I18" t="n">
-        <v>35.30744224105629</v>
+        <v>35.30744224105631</v>
       </c>
       <c r="J18" t="n">
-        <v>96.88632016746413</v>
+        <v>96.88632016746419</v>
       </c>
       <c r="K18" t="n">
-        <v>165.5941529922254</v>
+        <v>165.5941529922255</v>
       </c>
       <c r="L18" t="n">
-        <v>222.6617742857951</v>
+        <v>222.6617742857952</v>
       </c>
       <c r="M18" t="n">
-        <v>259.8357883141173</v>
+        <v>259.8357883141175</v>
       </c>
       <c r="N18" t="n">
-        <v>266.7128684652734</v>
+        <v>266.7128684652736</v>
       </c>
       <c r="O18" t="n">
-        <v>243.9901680573987</v>
+        <v>243.9901680573989</v>
       </c>
       <c r="P18" t="n">
-        <v>195.8236204192495</v>
+        <v>195.8236204192496</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.902904329134</v>
+        <v>130.9029043291341</v>
       </c>
       <c r="R18" t="n">
-        <v>63.67033788081438</v>
+        <v>63.67033788081442</v>
       </c>
       <c r="S18" t="n">
-        <v>19.04802775679914</v>
+        <v>19.04802775679915</v>
       </c>
       <c r="T18" t="n">
-        <v>4.133444512042129</v>
+        <v>4.133444512042131</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06746645014214578</v>
+        <v>0.06746645014214582</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8597364029042835</v>
+        <v>0.859736402904284</v>
       </c>
       <c r="H19" t="n">
-        <v>7.643838200367181</v>
+        <v>7.643838200367186</v>
       </c>
       <c r="I19" t="n">
-        <v>25.8546183709761</v>
+        <v>25.85461837097611</v>
       </c>
       <c r="J19" t="n">
-        <v>60.78336368533284</v>
+        <v>60.78336368533288</v>
       </c>
       <c r="K19" t="n">
-        <v>99.88573844651583</v>
+        <v>99.88573844651589</v>
       </c>
       <c r="L19" t="n">
-        <v>127.8193557554241</v>
+        <v>127.8193557554242</v>
       </c>
       <c r="M19" t="n">
-        <v>134.7675890479869</v>
+        <v>134.767589047987</v>
       </c>
       <c r="N19" t="n">
-        <v>131.5631170007983</v>
+        <v>131.5631170007984</v>
       </c>
       <c r="O19" t="n">
-        <v>121.51983265778</v>
+        <v>121.5198326577801</v>
       </c>
       <c r="P19" t="n">
         <v>103.9812100385326</v>
       </c>
       <c r="Q19" t="n">
-        <v>71.99120006501234</v>
+        <v>71.99120006501238</v>
       </c>
       <c r="R19" t="n">
-        <v>38.65687498876895</v>
+        <v>38.65687498876898</v>
       </c>
       <c r="S19" t="n">
-        <v>14.98286076697737</v>
+        <v>14.98286076697738</v>
       </c>
       <c r="T19" t="n">
-        <v>3.673419176045574</v>
+        <v>3.673419176045576</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04689471288568825</v>
+        <v>0.04689471288568828</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.916634831508863</v>
+        <v>1.916634831508864</v>
       </c>
       <c r="H20" t="n">
-        <v>19.62873646819014</v>
+        <v>19.62873646819016</v>
       </c>
       <c r="I20" t="n">
-        <v>73.8910643417455</v>
+        <v>73.89106434174556</v>
       </c>
       <c r="J20" t="n">
-        <v>162.6719855307755</v>
+        <v>162.6719855307756</v>
       </c>
       <c r="K20" t="n">
-        <v>243.8031379485457</v>
+        <v>243.8031379485459</v>
       </c>
       <c r="L20" t="n">
-        <v>302.4593511733351</v>
+        <v>302.4593511733353</v>
       </c>
       <c r="M20" t="n">
-        <v>336.5443058581808</v>
+        <v>336.5443058581811</v>
       </c>
       <c r="N20" t="n">
-        <v>341.9899445732054</v>
+        <v>341.9899445732057</v>
       </c>
       <c r="O20" t="n">
-        <v>322.9314069673891</v>
+        <v>322.9314069673894</v>
       </c>
       <c r="P20" t="n">
-        <v>275.614484564514</v>
+        <v>275.6144845645143</v>
       </c>
       <c r="Q20" t="n">
-        <v>206.9749996611028</v>
+        <v>206.974999661103</v>
       </c>
       <c r="R20" t="n">
-        <v>120.3958127347687</v>
+        <v>120.3958127347688</v>
       </c>
       <c r="S20" t="n">
-        <v>43.67531622300825</v>
+        <v>43.67531622300829</v>
       </c>
       <c r="T20" t="n">
-        <v>8.390068974930051</v>
+        <v>8.390068974930058</v>
       </c>
       <c r="U20" t="n">
-        <v>0.153330786520709</v>
+        <v>0.1533307865207091</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.025490042160615</v>
+        <v>1.025490042160616</v>
       </c>
       <c r="H21" t="n">
-        <v>9.904074880866998</v>
+        <v>9.904074880867006</v>
       </c>
       <c r="I21" t="n">
-        <v>35.30744224105628</v>
+        <v>35.30744224105631</v>
       </c>
       <c r="J21" t="n">
-        <v>96.88632016746412</v>
+        <v>96.88632016746421</v>
       </c>
       <c r="K21" t="n">
-        <v>165.5941529922254</v>
+        <v>165.5941529922255</v>
       </c>
       <c r="L21" t="n">
-        <v>222.661774285795</v>
+        <v>222.6617742857952</v>
       </c>
       <c r="M21" t="n">
-        <v>259.8357883141173</v>
+        <v>259.8357883141175</v>
       </c>
       <c r="N21" t="n">
-        <v>266.7128684652734</v>
+        <v>266.7128684652736</v>
       </c>
       <c r="O21" t="n">
-        <v>243.9901680573987</v>
+        <v>243.9901680573989</v>
       </c>
       <c r="P21" t="n">
-        <v>195.8236204192495</v>
+        <v>195.8236204192496</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.902904329134</v>
+        <v>130.9029043291341</v>
       </c>
       <c r="R21" t="n">
-        <v>63.67033788081437</v>
+        <v>63.67033788081443</v>
       </c>
       <c r="S21" t="n">
-        <v>19.04802775679914</v>
+        <v>19.04802775679915</v>
       </c>
       <c r="T21" t="n">
-        <v>4.133444512042128</v>
+        <v>4.133444512042131</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06746645014214578</v>
+        <v>0.06746645014214583</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8597364029042834</v>
+        <v>0.8597364029042841</v>
       </c>
       <c r="H22" t="n">
-        <v>7.64383820036718</v>
+        <v>7.643838200367187</v>
       </c>
       <c r="I22" t="n">
-        <v>25.85461837097609</v>
+        <v>25.85461837097612</v>
       </c>
       <c r="J22" t="n">
-        <v>60.78336368533284</v>
+        <v>60.78336368533289</v>
       </c>
       <c r="K22" t="n">
-        <v>99.88573844651582</v>
+        <v>99.8857384465159</v>
       </c>
       <c r="L22" t="n">
-        <v>127.8193557554241</v>
+        <v>127.8193557554242</v>
       </c>
       <c r="M22" t="n">
-        <v>134.7675890479869</v>
+        <v>134.767589047987</v>
       </c>
       <c r="N22" t="n">
-        <v>131.5631170007983</v>
+        <v>131.5631170007984</v>
       </c>
       <c r="O22" t="n">
-        <v>121.51983265778</v>
+        <v>121.5198326577801</v>
       </c>
       <c r="P22" t="n">
-        <v>103.9812100385326</v>
+        <v>103.9812100385327</v>
       </c>
       <c r="Q22" t="n">
-        <v>71.99120006501232</v>
+        <v>71.99120006501238</v>
       </c>
       <c r="R22" t="n">
-        <v>38.65687498876895</v>
+        <v>38.65687498876898</v>
       </c>
       <c r="S22" t="n">
-        <v>14.98286076697737</v>
+        <v>14.98286076697738</v>
       </c>
       <c r="T22" t="n">
-        <v>3.673419176045574</v>
+        <v>3.673419176045577</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04689471288568824</v>
+        <v>0.04689471288568828</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>89.34839419746757</v>
+        <v>89.34839419746763</v>
       </c>
       <c r="K11" t="n">
-        <v>154.6667482753286</v>
+        <v>154.6667482753287</v>
       </c>
       <c r="L11" t="n">
-        <v>206.9739531104904</v>
+        <v>206.9739531104905</v>
       </c>
       <c r="M11" t="n">
-        <v>243.2540814011355</v>
+        <v>243.2540814011356</v>
       </c>
       <c r="N11" t="n">
-        <v>249.0776538165862</v>
+        <v>249.0776538165863</v>
       </c>
       <c r="O11" t="n">
-        <v>229.7416313416061</v>
+        <v>229.7416313416062</v>
       </c>
       <c r="P11" t="n">
-        <v>181.9651212836299</v>
+        <v>181.9651212836301</v>
       </c>
       <c r="Q11" t="n">
-        <v>116.9411952619508</v>
+        <v>116.9411952619509</v>
       </c>
       <c r="R11" t="n">
-        <v>33.08366992004521</v>
+        <v>33.08366992004525</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>14.76633677509406</v>
+        <v>14.76633677509408</v>
       </c>
       <c r="J12" t="n">
         <v>291.6467823519422</v>
@@ -35497,22 +35497,22 @@
         <v>166.5472504749461</v>
       </c>
       <c r="M12" t="n">
-        <v>202.2715045756999</v>
+        <v>202.2715045757</v>
       </c>
       <c r="N12" t="n">
-        <v>213.5194750715235</v>
+        <v>213.5194750715236</v>
       </c>
       <c r="O12" t="n">
-        <v>186.2386890573988</v>
+        <v>186.2386890573989</v>
       </c>
       <c r="P12" t="n">
-        <v>141.5639854164457</v>
+        <v>141.5639854164458</v>
       </c>
       <c r="Q12" t="n">
-        <v>174.059915902171</v>
+        <v>85.20161643047361</v>
       </c>
       <c r="R12" t="n">
-        <v>4.670138775408979</v>
+        <v>93.52843824710723</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>75.00816106433338</v>
+        <v>9.350218002377453</v>
       </c>
       <c r="K13" t="n">
-        <v>255.9992007922108</v>
+        <v>47.63536888744905</v>
       </c>
       <c r="L13" t="n">
-        <v>380.1025316638157</v>
+        <v>248.9262239232521</v>
       </c>
       <c r="M13" t="n">
-        <v>78.50264654920687</v>
+        <v>380.1025316638161</v>
       </c>
       <c r="N13" t="n">
-        <v>79.8504714923789</v>
+        <v>380.1025316638161</v>
       </c>
       <c r="O13" t="n">
-        <v>185.6741279002009</v>
+        <v>380.1025316638161</v>
       </c>
       <c r="P13" t="n">
-        <v>311.734179987636</v>
+        <v>48.20136839862784</v>
       </c>
       <c r="Q13" t="n">
-        <v>138.1811291584576</v>
+        <v>10.6316744050868</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>89.34839419746754</v>
+        <v>89.34839419746763</v>
       </c>
       <c r="K14" t="n">
-        <v>154.6667482753286</v>
+        <v>154.6667482753287</v>
       </c>
       <c r="L14" t="n">
-        <v>206.9739531104903</v>
+        <v>206.9739531104905</v>
       </c>
       <c r="M14" t="n">
-        <v>243.2540814011354</v>
+        <v>243.2540814011356</v>
       </c>
       <c r="N14" t="n">
-        <v>249.0776538165861</v>
+        <v>249.0776538165863</v>
       </c>
       <c r="O14" t="n">
-        <v>229.741631341606</v>
+        <v>229.7416313416062</v>
       </c>
       <c r="P14" t="n">
-        <v>181.9651212836299</v>
+        <v>181.9651212836301</v>
       </c>
       <c r="Q14" t="n">
-        <v>116.9411952619508</v>
+        <v>116.9411952619509</v>
       </c>
       <c r="R14" t="n">
-        <v>33.08366992004518</v>
+        <v>33.08366992004525</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>14.76633677509405</v>
+        <v>14.76633677509408</v>
       </c>
       <c r="J15" t="n">
-        <v>45.51708136746411</v>
+        <v>291.6467823519422</v>
       </c>
       <c r="K15" t="n">
-        <v>109.76837020761</v>
+        <v>209.6180002854871</v>
       </c>
       <c r="L15" t="n">
-        <v>380.1025316638157</v>
+        <v>166.5472504749461</v>
       </c>
       <c r="M15" t="n">
-        <v>334.6955544491843</v>
+        <v>202.2715045757</v>
       </c>
       <c r="N15" t="n">
-        <v>213.5194750715234</v>
+        <v>213.5194750715236</v>
       </c>
       <c r="O15" t="n">
-        <v>186.2386890573987</v>
+        <v>186.2386890573989</v>
       </c>
       <c r="P15" t="n">
-        <v>141.5639854164457</v>
+        <v>141.5639854164458</v>
       </c>
       <c r="Q15" t="n">
-        <v>74.21028582429528</v>
+        <v>74.21028582429537</v>
       </c>
       <c r="R15" t="n">
-        <v>4.670138775408965</v>
+        <v>4.670138775409001</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>75.00816106433336</v>
+        <v>9.350218002377453</v>
       </c>
       <c r="K16" t="n">
-        <v>255.9992007922107</v>
+        <v>47.63536888744905</v>
       </c>
       <c r="L16" t="n">
-        <v>380.1025316638157</v>
+        <v>248.9262239232521</v>
       </c>
       <c r="M16" t="n">
-        <v>198.7318398646242</v>
+        <v>380.1025316638162</v>
       </c>
       <c r="N16" t="n">
-        <v>79.85047149237887</v>
+        <v>380.1025316638162</v>
       </c>
       <c r="O16" t="n">
-        <v>65.44493458478371</v>
+        <v>380.1025316638162</v>
       </c>
       <c r="P16" t="n">
-        <v>311.734179987636</v>
+        <v>48.20136839862784</v>
       </c>
       <c r="Q16" t="n">
-        <v>138.1811291584576</v>
+        <v>10.6316744050868</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>89.34839419746757</v>
+        <v>89.34839419746766</v>
       </c>
       <c r="K17" t="n">
-        <v>154.6667482753286</v>
+        <v>154.6667482753288</v>
       </c>
       <c r="L17" t="n">
-        <v>206.9739531104904</v>
+        <v>206.9739531104905</v>
       </c>
       <c r="M17" t="n">
-        <v>243.2540814011354</v>
+        <v>243.2540814011356</v>
       </c>
       <c r="N17" t="n">
-        <v>249.0776538165861</v>
+        <v>249.0776538165863</v>
       </c>
       <c r="O17" t="n">
-        <v>229.7416313416061</v>
+        <v>229.7416313416063</v>
       </c>
       <c r="P17" t="n">
-        <v>181.9651212836299</v>
+        <v>181.9651212836301</v>
       </c>
       <c r="Q17" t="n">
-        <v>116.9411952619508</v>
+        <v>116.941195261951</v>
       </c>
       <c r="R17" t="n">
-        <v>33.0836699200452</v>
+        <v>33.08366992004527</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,28 +35965,28 @@
         <v>291.6467823519422</v>
       </c>
       <c r="K18" t="n">
-        <v>109.76837020761</v>
+        <v>224.3843370605805</v>
       </c>
       <c r="L18" t="n">
-        <v>281.1632173279159</v>
+        <v>166.5472504749461</v>
       </c>
       <c r="M18" t="n">
-        <v>202.2715045756999</v>
+        <v>202.2715045757</v>
       </c>
       <c r="N18" t="n">
-        <v>213.5194750715234</v>
+        <v>213.5194750715236</v>
       </c>
       <c r="O18" t="n">
-        <v>186.2386890573987</v>
+        <v>186.2386890573989</v>
       </c>
       <c r="P18" t="n">
-        <v>141.5639854164457</v>
+        <v>141.5639854164459</v>
       </c>
       <c r="Q18" t="n">
-        <v>74.21028582429531</v>
+        <v>74.21028582429537</v>
       </c>
       <c r="R18" t="n">
-        <v>4.670138775408972</v>
+        <v>4.670138775409015</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>75.00816106433336</v>
+        <v>9.35021800237746</v>
       </c>
       <c r="K19" t="n">
         <v>255.9992007922108</v>
       </c>
       <c r="L19" t="n">
-        <v>380.1025316638157</v>
+        <v>380.1025316638161</v>
       </c>
       <c r="M19" t="n">
-        <v>78.50264654920684</v>
+        <v>380.1025316638161</v>
       </c>
       <c r="N19" t="n">
-        <v>79.85047149237887</v>
+        <v>355.2199890975224</v>
       </c>
       <c r="O19" t="n">
-        <v>185.6741279002009</v>
+        <v>65.44493458478379</v>
       </c>
       <c r="P19" t="n">
-        <v>311.734179987636</v>
+        <v>48.20136839862786</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.1811291584576</v>
+        <v>10.63167440508681</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>89.34839419746754</v>
+        <v>89.34839419746768</v>
       </c>
       <c r="K20" t="n">
-        <v>154.6667482753286</v>
+        <v>154.6667482753288</v>
       </c>
       <c r="L20" t="n">
-        <v>206.9739531104903</v>
+        <v>206.9739531104905</v>
       </c>
       <c r="M20" t="n">
-        <v>243.2540814011354</v>
+        <v>243.2540814011357</v>
       </c>
       <c r="N20" t="n">
-        <v>249.0776538165861</v>
+        <v>249.0776538165864</v>
       </c>
       <c r="O20" t="n">
-        <v>229.741631341606</v>
+        <v>229.7416313416063</v>
       </c>
       <c r="P20" t="n">
-        <v>181.9651212836299</v>
+        <v>181.9651212836301</v>
       </c>
       <c r="Q20" t="n">
-        <v>116.9411952619508</v>
+        <v>116.941195261951</v>
       </c>
       <c r="R20" t="n">
-        <v>33.08366992004518</v>
+        <v>33.08366992004528</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>100.3705033653917</v>
+        <v>291.6467823519422</v>
       </c>
       <c r="K21" t="n">
-        <v>109.76837020761</v>
+        <v>109.7683702076101</v>
       </c>
       <c r="L21" t="n">
-        <v>166.547250474946</v>
+        <v>166.5472504749462</v>
       </c>
       <c r="M21" t="n">
-        <v>202.2715045756999</v>
+        <v>202.2715045757001</v>
       </c>
       <c r="N21" t="n">
-        <v>213.5194750715234</v>
+        <v>213.5194750715236</v>
       </c>
       <c r="O21" t="n">
-        <v>186.2386890573987</v>
+        <v>186.2386890573989</v>
       </c>
       <c r="P21" t="n">
-        <v>141.5639854164457</v>
+        <v>141.5639854164459</v>
       </c>
       <c r="Q21" t="n">
-        <v>380.1025316638157</v>
+        <v>99.96795320556714</v>
       </c>
       <c r="R21" t="n">
-        <v>4.670138775408965</v>
+        <v>93.52843824710726</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>75.00816106433336</v>
+        <v>9.350218002377467</v>
       </c>
       <c r="K22" t="n">
-        <v>255.9992007922107</v>
+        <v>47.63536888744908</v>
       </c>
       <c r="L22" t="n">
-        <v>198.7318398646242</v>
+        <v>248.926223923252</v>
       </c>
       <c r="M22" t="n">
-        <v>380.1025316638157</v>
+        <v>380.1025316638161</v>
       </c>
       <c r="N22" t="n">
-        <v>79.85047149237887</v>
+        <v>380.1025316638161</v>
       </c>
       <c r="O22" t="n">
-        <v>65.44493458478371</v>
+        <v>380.1025316638161</v>
       </c>
       <c r="P22" t="n">
-        <v>311.734179987636</v>
+        <v>48.20136839862787</v>
       </c>
       <c r="Q22" t="n">
-        <v>138.1811291584576</v>
+        <v>10.63167440508681</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>22.31535144311488</v>
       </c>
       <c r="J24" t="n">
-        <v>66.23215461126497</v>
+        <v>312.361855595743</v>
       </c>
       <c r="K24" t="n">
-        <v>506.0804618258591</v>
+        <v>384.351368105005</v>
       </c>
       <c r="L24" t="n">
         <v>214.1541257794519</v>
@@ -36454,7 +36454,7 @@
         <v>238.4057462161409</v>
       </c>
       <c r="P24" t="n">
-        <v>307.8332551789602</v>
+        <v>183.4326479153363</v>
       </c>
       <c r="Q24" t="n">
         <v>102.1983779132225</v>
@@ -36515,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>88.00413230743453</v>
+        <v>22.34618924547858</v>
       </c>
       <c r="K25" t="n">
         <v>68.99174184448033</v>
       </c>
       <c r="L25" t="n">
-        <v>100.5198665046596</v>
+        <v>417.6704839137738</v>
       </c>
       <c r="M25" t="n">
         <v>455.7678973594753</v>
@@ -36533,10 +36533,10 @@
         <v>409.6841833510116</v>
       </c>
       <c r="P25" t="n">
-        <v>283.9649990588333</v>
+        <v>160.0217794650457</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.5734258178642</v>
+        <v>26.02397106449331</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>312.361855595743</v>
       </c>
       <c r="K27" t="n">
-        <v>295.4930686333068</v>
+        <v>145.1737298295874</v>
       </c>
       <c r="L27" t="n">
         <v>214.1541257794519</v>
@@ -36694,7 +36694,7 @@
         <v>183.4326479153363</v>
       </c>
       <c r="Q27" t="n">
-        <v>102.1983779132225</v>
+        <v>252.517716716942</v>
       </c>
       <c r="R27" t="n">
         <v>107.1416677554515</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>88.00413230743453</v>
+        <v>69.303174394932</v>
       </c>
       <c r="K28" t="n">
         <v>68.99174184448033</v>
@@ -36761,7 +36761,7 @@
         <v>417.6704839137738</v>
       </c>
       <c r="M28" t="n">
-        <v>455.7678973594753</v>
+        <v>107.3170392642375</v>
       </c>
       <c r="N28" t="n">
         <v>443.3679056323699</v>
@@ -36770,10 +36770,10 @@
         <v>409.6841833510116</v>
       </c>
       <c r="P28" t="n">
-        <v>70.43338606845134</v>
+        <v>333.9661976574595</v>
       </c>
       <c r="Q28" t="n">
-        <v>49.95442139913182</v>
+        <v>153.5734258178642</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>4.201322183229109</v>
       </c>
       <c r="J29" t="n">
-        <v>124.128970951338</v>
+        <v>124.1289709513377</v>
       </c>
       <c r="K29" t="n">
         <v>206.7938168949561</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>2.54989300907711</v>
+        <v>22.31535144311488</v>
       </c>
       <c r="J30" t="n">
         <v>312.361855595743</v>
@@ -36931,10 +36931,10 @@
         <v>183.4326479153363</v>
       </c>
       <c r="Q30" t="n">
-        <v>361.1414746226779</v>
+        <v>252.5177167169422</v>
       </c>
       <c r="R30" t="n">
-        <v>18.28336828375328</v>
+        <v>107.1416677554515</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>22.34618924547858</v>
+        <v>88.00413230743453</v>
       </c>
       <c r="K31" t="n">
         <v>68.99174184448033</v>
@@ -37007,10 +37007,10 @@
         <v>409.6841833510116</v>
       </c>
       <c r="P31" t="n">
-        <v>160.0217794650457</v>
+        <v>70.43338606845134</v>
       </c>
       <c r="Q31" t="n">
-        <v>26.02397106449331</v>
+        <v>49.95442139913205</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>2.54989300907711</v>
+        <v>22.31535144311488</v>
       </c>
       <c r="J33" t="n">
-        <v>210.3982203089267</v>
+        <v>312.361855595743</v>
       </c>
       <c r="K33" t="n">
-        <v>506.0804618258591</v>
+        <v>145.1737298295874</v>
       </c>
       <c r="L33" t="n">
         <v>214.1541257794519</v>
@@ -37168,10 +37168,10 @@
         <v>183.4326479153363</v>
       </c>
       <c r="Q33" t="n">
-        <v>102.1983779132225</v>
+        <v>252.517716716942</v>
       </c>
       <c r="R33" t="n">
-        <v>18.28336828375328</v>
+        <v>107.1416677554515</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>22.34618924547858</v>
+        <v>88.00413230743453</v>
       </c>
       <c r="K34" t="n">
         <v>68.99174184448033</v>
@@ -37244,10 +37244,10 @@
         <v>409.6841833510116</v>
       </c>
       <c r="P34" t="n">
-        <v>160.0217794650457</v>
+        <v>70.43338606845134</v>
       </c>
       <c r="Q34" t="n">
-        <v>26.02397106449331</v>
+        <v>49.95442139913182</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>312.361855595743</v>
       </c>
       <c r="K36" t="n">
-        <v>145.1737298295874</v>
+        <v>295.4930686333068</v>
       </c>
       <c r="L36" t="n">
         <v>214.1541257794519</v>
@@ -37405,10 +37405,10 @@
         <v>183.4326479153363</v>
       </c>
       <c r="Q36" t="n">
-        <v>341.3760161886401</v>
+        <v>102.1983779132225</v>
       </c>
       <c r="R36" t="n">
-        <v>18.28336828375328</v>
+        <v>107.1416677554515</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37475,13 +37475,13 @@
         <v>455.7678973594753</v>
       </c>
       <c r="N37" t="n">
-        <v>107.9797223519805</v>
+        <v>443.3679056323699</v>
       </c>
       <c r="O37" t="n">
-        <v>169.556718718899</v>
+        <v>91.42685060480903</v>
       </c>
       <c r="P37" t="n">
-        <v>333.9661976574595</v>
+        <v>76.70788249115985</v>
       </c>
       <c r="Q37" t="n">
         <v>153.5734258178642</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>2.54989300907711</v>
+        <v>22.31535144311488</v>
       </c>
       <c r="J39" t="n">
-        <v>66.23215461126497</v>
+        <v>312.361855595743</v>
       </c>
       <c r="K39" t="n">
-        <v>246.3644436108843</v>
+        <v>295.4930686333068</v>
       </c>
       <c r="L39" t="n">
         <v>214.1541257794519</v>
@@ -37642,10 +37642,10 @@
         <v>183.4326479153363</v>
       </c>
       <c r="Q39" t="n">
-        <v>506.0804618258591</v>
+        <v>102.1983779132225</v>
       </c>
       <c r="R39" t="n">
-        <v>18.28336828375328</v>
+        <v>107.1416677554515</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37703,13 +37703,13 @@
         <v>88.00413230743453</v>
       </c>
       <c r="K40" t="n">
-        <v>92.92219217911871</v>
+        <v>277.3555737492421</v>
       </c>
       <c r="L40" t="n">
         <v>417.6704839137738</v>
       </c>
       <c r="M40" t="n">
-        <v>455.7678973594753</v>
+        <v>107.3170392642375</v>
       </c>
       <c r="N40" t="n">
         <v>443.3679056323699</v>
@@ -37718,10 +37718,10 @@
         <v>409.6841833510116</v>
       </c>
       <c r="P40" t="n">
-        <v>70.43338606845134</v>
+        <v>106.9014078401953</v>
       </c>
       <c r="Q40" t="n">
-        <v>26.02397106449331</v>
+        <v>153.5734258178642</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37940,13 +37940,13 @@
         <v>88.00413230743453</v>
       </c>
       <c r="K43" t="n">
-        <v>92.92219217911871</v>
+        <v>277.3555737492421</v>
       </c>
       <c r="L43" t="n">
         <v>417.6704839137738</v>
       </c>
       <c r="M43" t="n">
-        <v>455.7678973594753</v>
+        <v>107.3170392642375</v>
       </c>
       <c r="N43" t="n">
         <v>443.3679056323699</v>
@@ -37955,10 +37955,10 @@
         <v>409.6841833510116</v>
       </c>
       <c r="P43" t="n">
-        <v>70.43338606845134</v>
+        <v>106.9014078401953</v>
       </c>
       <c r="Q43" t="n">
-        <v>26.02397106449331</v>
+        <v>153.5734258178642</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>2.549893009077124</v>
+        <v>22.3153514431149</v>
       </c>
       <c r="J45" t="n">
         <v>312.361855595743</v>
       </c>
       <c r="K45" t="n">
-        <v>145.1737298295874</v>
+        <v>295.4930686333069</v>
       </c>
       <c r="L45" t="n">
         <v>214.1541257794519</v>
@@ -38116,10 +38116,10 @@
         <v>183.4326479153363</v>
       </c>
       <c r="Q45" t="n">
-        <v>361.1414746226779</v>
+        <v>102.1983779132225</v>
       </c>
       <c r="R45" t="n">
-        <v>18.28336828375331</v>
+        <v>107.1416677554516</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,25 +38174,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>22.34618924547859</v>
+        <v>88.00413230743453</v>
       </c>
       <c r="K46" t="n">
         <v>277.3555737492421</v>
       </c>
       <c r="L46" t="n">
-        <v>417.6704839137739</v>
+        <v>100.5198665046596</v>
       </c>
       <c r="M46" t="n">
-        <v>107.3170392642375</v>
+        <v>455.7678973594754</v>
       </c>
       <c r="N46" t="n">
-        <v>281.9610588770616</v>
+        <v>443.3679056323699</v>
       </c>
       <c r="O46" t="n">
         <v>409.6841833510116</v>
       </c>
       <c r="P46" t="n">
-        <v>333.9661976574595</v>
+        <v>75.60116715407152</v>
       </c>
       <c r="Q46" t="n">
         <v>153.5734258178642</v>
